--- a/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="101">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -284,6 +284,9 @@
   </si>
   <si>
     <t>['54', '74', '87']</t>
+  </si>
+  <si>
+    <t>['41', '73', '84']</t>
   </si>
   <si>
     <t>['14', '18', '24', '66', '83', '87']</t>
@@ -675,7 +678,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP16"/>
+  <dimension ref="A1:BP17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1140,7 +1143,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1218,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ3">
         <v>2</v>
@@ -1552,7 +1555,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q5">
         <v>2.05</v>
@@ -1758,7 +1761,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2170,7 +2173,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2248,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ8">
         <v>3</v>
@@ -2582,7 +2585,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q10">
         <v>1.8</v>
@@ -2788,7 +2791,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q11">
         <v>1.91</v>
@@ -2869,7 +2872,7 @@
         <v>2</v>
       </c>
       <c r="AQ11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AR11">
         <v>1.79</v>
@@ -2994,7 +2997,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3200,7 +3203,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q13">
         <v>2.88</v>
@@ -3406,7 +3409,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3612,7 +3615,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -3974,6 +3977,212 @@
         <v>0</v>
       </c>
       <c r="BP16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:68">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>7325148</v>
+      </c>
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="2">
+        <v>45380.39583333334</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" t="s">
+        <v>73</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>3</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>3</v>
+      </c>
+      <c r="O17" t="s">
+        <v>90</v>
+      </c>
+      <c r="P17" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q17">
+        <v>5</v>
+      </c>
+      <c r="R17">
+        <v>2.2</v>
+      </c>
+      <c r="S17">
+        <v>2.2</v>
+      </c>
+      <c r="T17">
+        <v>1.37</v>
+      </c>
+      <c r="U17">
+        <v>2.94</v>
+      </c>
+      <c r="V17">
+        <v>2.75</v>
+      </c>
+      <c r="W17">
+        <v>1.4</v>
+      </c>
+      <c r="X17">
+        <v>6.8</v>
+      </c>
+      <c r="Y17">
+        <v>1.08</v>
+      </c>
+      <c r="Z17">
+        <v>3.2</v>
+      </c>
+      <c r="AA17">
+        <v>3.35</v>
+      </c>
+      <c r="AB17">
+        <v>2.05</v>
+      </c>
+      <c r="AC17">
+        <v>1.01</v>
+      </c>
+      <c r="AD17">
+        <v>9.4</v>
+      </c>
+      <c r="AE17">
+        <v>1.28</v>
+      </c>
+      <c r="AF17">
+        <v>3.5</v>
+      </c>
+      <c r="AG17">
+        <v>1.85</v>
+      </c>
+      <c r="AH17">
+        <v>1.86</v>
+      </c>
+      <c r="AI17">
+        <v>1.87</v>
+      </c>
+      <c r="AJ17">
+        <v>1.87</v>
+      </c>
+      <c r="AK17">
+        <v>2.2</v>
+      </c>
+      <c r="AL17">
+        <v>1.2</v>
+      </c>
+      <c r="AM17">
+        <v>1.11</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>1</v>
+      </c>
+      <c r="AP17">
+        <v>1</v>
+      </c>
+      <c r="AQ17">
+        <v>0.5</v>
+      </c>
+      <c r="AR17">
+        <v>0.95</v>
+      </c>
+      <c r="AS17">
+        <v>1.65</v>
+      </c>
+      <c r="AT17">
+        <v>2.6</v>
+      </c>
+      <c r="AU17">
+        <v>11</v>
+      </c>
+      <c r="AV17">
+        <v>0</v>
+      </c>
+      <c r="AW17">
+        <v>11</v>
+      </c>
+      <c r="AX17">
+        <v>9</v>
+      </c>
+      <c r="AY17">
+        <v>22</v>
+      </c>
+      <c r="AZ17">
+        <v>9</v>
+      </c>
+      <c r="BA17">
+        <v>4</v>
+      </c>
+      <c r="BB17">
+        <v>8</v>
+      </c>
+      <c r="BC17">
+        <v>12</v>
+      </c>
+      <c r="BD17">
+        <v>0</v>
+      </c>
+      <c r="BE17">
+        <v>0</v>
+      </c>
+      <c r="BF17">
+        <v>0</v>
+      </c>
+      <c r="BG17">
+        <v>0</v>
+      </c>
+      <c r="BH17">
+        <v>0</v>
+      </c>
+      <c r="BI17">
+        <v>0</v>
+      </c>
+      <c r="BJ17">
+        <v>0</v>
+      </c>
+      <c r="BK17">
+        <v>0</v>
+      </c>
+      <c r="BL17">
+        <v>0</v>
+      </c>
+      <c r="BM17">
+        <v>0</v>
+      </c>
+      <c r="BN17">
+        <v>0</v>
+      </c>
+      <c r="BO17">
+        <v>0</v>
+      </c>
+      <c r="BP17">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="104">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -289,6 +289,12 @@
     <t>['41', '73', '84']</t>
   </si>
   <si>
+    <t>['19']</t>
+  </si>
+  <si>
+    <t>['35', '70']</t>
+  </si>
+  <si>
     <t>['14', '18', '24', '66', '83', '87']</t>
   </si>
   <si>
@@ -317,6 +323,9 @@
   </si>
   <si>
     <t>['38', '64']</t>
+  </si>
+  <si>
+    <t>['25', '79']</t>
   </si>
 </sst>
 </file>
@@ -678,7 +687,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP17"/>
+  <dimension ref="A1:BP19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1143,7 +1152,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1224,7 +1233,7 @@
         <v>1</v>
       </c>
       <c r="AQ3">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1555,7 +1564,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q5">
         <v>2.05</v>
@@ -1761,7 +1770,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -1839,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ6">
         <v>3</v>
@@ -2173,7 +2182,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2585,7 +2594,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q10">
         <v>1.8</v>
@@ -2791,7 +2800,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q11">
         <v>1.91</v>
@@ -2997,7 +3006,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3203,7 +3212,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q13">
         <v>2.88</v>
@@ -3409,7 +3418,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3487,7 +3496,7 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AQ14">
         <v>2</v>
@@ -3615,7 +3624,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -3693,7 +3702,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ15">
         <v>0</v>
@@ -3902,7 +3911,7 @@
         <v>1</v>
       </c>
       <c r="AQ16">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4183,6 +4192,418 @@
         <v>0</v>
       </c>
       <c r="BP17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:68">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>7325149</v>
+      </c>
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="2">
+        <v>45381.3125</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" t="s">
+        <v>76</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2</v>
+      </c>
+      <c r="N18">
+        <v>3</v>
+      </c>
+      <c r="O18" t="s">
+        <v>91</v>
+      </c>
+      <c r="P18" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q18">
+        <v>4</v>
+      </c>
+      <c r="R18">
+        <v>2.2</v>
+      </c>
+      <c r="S18">
+        <v>2.5</v>
+      </c>
+      <c r="T18">
+        <v>1.36</v>
+      </c>
+      <c r="U18">
+        <v>2.99</v>
+      </c>
+      <c r="V18">
+        <v>2.6</v>
+      </c>
+      <c r="W18">
+        <v>1.45</v>
+      </c>
+      <c r="X18">
+        <v>6.35</v>
+      </c>
+      <c r="Y18">
+        <v>1.1</v>
+      </c>
+      <c r="Z18">
+        <v>3.56</v>
+      </c>
+      <c r="AA18">
+        <v>3.45</v>
+      </c>
+      <c r="AB18">
+        <v>1.97</v>
+      </c>
+      <c r="AC18">
+        <v>1.01</v>
+      </c>
+      <c r="AD18">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AE18">
+        <v>1.25</v>
+      </c>
+      <c r="AF18">
+        <v>3.75</v>
+      </c>
+      <c r="AG18">
+        <v>1.83</v>
+      </c>
+      <c r="AH18">
+        <v>1.83</v>
+      </c>
+      <c r="AI18">
+        <v>1.68</v>
+      </c>
+      <c r="AJ18">
+        <v>2.1</v>
+      </c>
+      <c r="AK18">
+        <v>1.87</v>
+      </c>
+      <c r="AL18">
+        <v>1.22</v>
+      </c>
+      <c r="AM18">
+        <v>1.2</v>
+      </c>
+      <c r="AN18">
+        <v>1.5</v>
+      </c>
+      <c r="AO18">
+        <v>2</v>
+      </c>
+      <c r="AP18">
+        <v>1</v>
+      </c>
+      <c r="AQ18">
+        <v>2.33</v>
+      </c>
+      <c r="AR18">
+        <v>1.11</v>
+      </c>
+      <c r="AS18">
+        <v>1.97</v>
+      </c>
+      <c r="AT18">
+        <v>3.08</v>
+      </c>
+      <c r="AU18">
+        <v>4</v>
+      </c>
+      <c r="AV18">
+        <v>8</v>
+      </c>
+      <c r="AW18">
+        <v>5</v>
+      </c>
+      <c r="AX18">
+        <v>7</v>
+      </c>
+      <c r="AY18">
+        <v>9</v>
+      </c>
+      <c r="AZ18">
+        <v>15</v>
+      </c>
+      <c r="BA18">
+        <v>2</v>
+      </c>
+      <c r="BB18">
+        <v>13</v>
+      </c>
+      <c r="BC18">
+        <v>15</v>
+      </c>
+      <c r="BD18">
+        <v>0</v>
+      </c>
+      <c r="BE18">
+        <v>0</v>
+      </c>
+      <c r="BF18">
+        <v>0</v>
+      </c>
+      <c r="BG18">
+        <v>0</v>
+      </c>
+      <c r="BH18">
+        <v>0</v>
+      </c>
+      <c r="BI18">
+        <v>0</v>
+      </c>
+      <c r="BJ18">
+        <v>0</v>
+      </c>
+      <c r="BK18">
+        <v>0</v>
+      </c>
+      <c r="BL18">
+        <v>0</v>
+      </c>
+      <c r="BM18">
+        <v>0</v>
+      </c>
+      <c r="BN18">
+        <v>0</v>
+      </c>
+      <c r="BO18">
+        <v>0</v>
+      </c>
+      <c r="BP18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:68">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>7325150</v>
+      </c>
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="2">
+        <v>45381.39583333334</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19" t="s">
+        <v>79</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>2</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>2</v>
+      </c>
+      <c r="O19" t="s">
+        <v>92</v>
+      </c>
+      <c r="P19" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q19">
+        <v>2.88</v>
+      </c>
+      <c r="R19">
+        <v>2.1</v>
+      </c>
+      <c r="S19">
+        <v>3.4</v>
+      </c>
+      <c r="T19">
+        <v>1.31</v>
+      </c>
+      <c r="U19">
+        <v>3.26</v>
+      </c>
+      <c r="V19">
+        <v>2.36</v>
+      </c>
+      <c r="W19">
+        <v>1.54</v>
+      </c>
+      <c r="X19">
+        <v>5.45</v>
+      </c>
+      <c r="Y19">
+        <v>1.13</v>
+      </c>
+      <c r="Z19">
+        <v>1.97</v>
+      </c>
+      <c r="AA19">
+        <v>3.3</v>
+      </c>
+      <c r="AB19">
+        <v>3.64</v>
+      </c>
+      <c r="AC19">
+        <v>1.01</v>
+      </c>
+      <c r="AD19">
+        <v>9.9</v>
+      </c>
+      <c r="AE19">
+        <v>1.18</v>
+      </c>
+      <c r="AF19">
+        <v>4.5</v>
+      </c>
+      <c r="AG19">
+        <v>2</v>
+      </c>
+      <c r="AH19">
+        <v>1.8</v>
+      </c>
+      <c r="AI19">
+        <v>1.5</v>
+      </c>
+      <c r="AJ19">
+        <v>2.5</v>
+      </c>
+      <c r="AK19">
+        <v>1.3</v>
+      </c>
+      <c r="AL19">
+        <v>1.25</v>
+      </c>
+      <c r="AM19">
+        <v>1.55</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>1.5</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>1.58</v>
+      </c>
+      <c r="AS19">
+        <v>0.76</v>
+      </c>
+      <c r="AT19">
+        <v>2.34</v>
+      </c>
+      <c r="AU19">
+        <v>7</v>
+      </c>
+      <c r="AV19">
+        <v>3</v>
+      </c>
+      <c r="AW19">
+        <v>10</v>
+      </c>
+      <c r="AX19">
+        <v>3</v>
+      </c>
+      <c r="AY19">
+        <v>17</v>
+      </c>
+      <c r="AZ19">
+        <v>6</v>
+      </c>
+      <c r="BA19">
+        <v>5</v>
+      </c>
+      <c r="BB19">
+        <v>5</v>
+      </c>
+      <c r="BC19">
+        <v>10</v>
+      </c>
+      <c r="BD19">
+        <v>0</v>
+      </c>
+      <c r="BE19">
+        <v>0</v>
+      </c>
+      <c r="BF19">
+        <v>0</v>
+      </c>
+      <c r="BG19">
+        <v>0</v>
+      </c>
+      <c r="BH19">
+        <v>0</v>
+      </c>
+      <c r="BI19">
+        <v>0</v>
+      </c>
+      <c r="BJ19">
+        <v>0</v>
+      </c>
+      <c r="BK19">
+        <v>0</v>
+      </c>
+      <c r="BL19">
+        <v>0</v>
+      </c>
+      <c r="BM19">
+        <v>0</v>
+      </c>
+      <c r="BN19">
+        <v>0</v>
+      </c>
+      <c r="BO19">
+        <v>0</v>
+      </c>
+      <c r="BP19">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="105">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -293,6 +293,9 @@
   </si>
   <si>
     <t>['35', '70']</t>
+  </si>
+  <si>
+    <t>['24', '64']</t>
   </si>
   <si>
     <t>['14', '18', '24', '66', '83', '87']</t>
@@ -687,7 +690,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP19"/>
+  <dimension ref="A1:BP21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1152,7 +1155,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1564,7 +1567,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q5">
         <v>2.05</v>
@@ -1770,7 +1773,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -1851,7 +1854,7 @@
         <v>1</v>
       </c>
       <c r="AQ6">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2054,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ7">
         <v>0</v>
@@ -2182,7 +2185,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2594,7 +2597,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q10">
         <v>1.8</v>
@@ -2800,7 +2803,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q11">
         <v>1.91</v>
@@ -3006,7 +3009,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3212,7 +3215,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q13">
         <v>2.88</v>
@@ -3293,7 +3296,7 @@
         <v>3</v>
       </c>
       <c r="AQ13">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR13">
         <v>2.65</v>
@@ -3418,7 +3421,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3624,7 +3627,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4242,7 +4245,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -4604,6 +4607,418 @@
         <v>0</v>
       </c>
       <c r="BP19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:68">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>7325151</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="2">
+        <v>45382.27083333334</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" t="s">
+        <v>70</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20" t="s">
+        <v>81</v>
+      </c>
+      <c r="P20" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q20">
+        <v>7</v>
+      </c>
+      <c r="R20">
+        <v>2.38</v>
+      </c>
+      <c r="S20">
+        <v>1.83</v>
+      </c>
+      <c r="T20">
+        <v>1.35</v>
+      </c>
+      <c r="U20">
+        <v>3.04</v>
+      </c>
+      <c r="V20">
+        <v>2.6</v>
+      </c>
+      <c r="W20">
+        <v>1.45</v>
+      </c>
+      <c r="X20">
+        <v>6.4</v>
+      </c>
+      <c r="Y20">
+        <v>1.1</v>
+      </c>
+      <c r="Z20">
+        <v>5.8</v>
+      </c>
+      <c r="AA20">
+        <v>4</v>
+      </c>
+      <c r="AB20">
+        <v>1.44</v>
+      </c>
+      <c r="AC20">
+        <v>1.02</v>
+      </c>
+      <c r="AD20">
+        <v>10.25</v>
+      </c>
+      <c r="AE20">
+        <v>1.25</v>
+      </c>
+      <c r="AF20">
+        <v>3.75</v>
+      </c>
+      <c r="AG20">
+        <v>1.75</v>
+      </c>
+      <c r="AH20">
+        <v>1.91</v>
+      </c>
+      <c r="AI20">
+        <v>2.15</v>
+      </c>
+      <c r="AJ20">
+        <v>1.68</v>
+      </c>
+      <c r="AK20">
+        <v>3.1</v>
+      </c>
+      <c r="AL20">
+        <v>1.12</v>
+      </c>
+      <c r="AM20">
+        <v>1.03</v>
+      </c>
+      <c r="AN20">
+        <v>3</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>2</v>
+      </c>
+      <c r="AQ20">
+        <v>0.5</v>
+      </c>
+      <c r="AR20">
+        <v>2.07</v>
+      </c>
+      <c r="AS20">
+        <v>1.48</v>
+      </c>
+      <c r="AT20">
+        <v>3.55</v>
+      </c>
+      <c r="AU20">
+        <v>11</v>
+      </c>
+      <c r="AV20">
+        <v>3</v>
+      </c>
+      <c r="AW20">
+        <v>8</v>
+      </c>
+      <c r="AX20">
+        <v>6</v>
+      </c>
+      <c r="AY20">
+        <v>19</v>
+      </c>
+      <c r="AZ20">
+        <v>9</v>
+      </c>
+      <c r="BA20">
+        <v>8</v>
+      </c>
+      <c r="BB20">
+        <v>6</v>
+      </c>
+      <c r="BC20">
+        <v>14</v>
+      </c>
+      <c r="BD20">
+        <v>0</v>
+      </c>
+      <c r="BE20">
+        <v>0</v>
+      </c>
+      <c r="BF20">
+        <v>0</v>
+      </c>
+      <c r="BG20">
+        <v>0</v>
+      </c>
+      <c r="BH20">
+        <v>0</v>
+      </c>
+      <c r="BI20">
+        <v>0</v>
+      </c>
+      <c r="BJ20">
+        <v>0</v>
+      </c>
+      <c r="BK20">
+        <v>0</v>
+      </c>
+      <c r="BL20">
+        <v>0</v>
+      </c>
+      <c r="BM20">
+        <v>0</v>
+      </c>
+      <c r="BN20">
+        <v>0</v>
+      </c>
+      <c r="BO20">
+        <v>0</v>
+      </c>
+      <c r="BP20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:68">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>7325152</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="2">
+        <v>45382.35416666666</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21" t="s">
+        <v>72</v>
+      </c>
+      <c r="H21" t="s">
+        <v>77</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>2</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>2</v>
+      </c>
+      <c r="O21" t="s">
+        <v>93</v>
+      </c>
+      <c r="P21" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q21">
+        <v>2.2</v>
+      </c>
+      <c r="R21">
+        <v>2.2</v>
+      </c>
+      <c r="S21">
+        <v>5</v>
+      </c>
+      <c r="T21">
+        <v>1.4</v>
+      </c>
+      <c r="U21">
+        <v>2.75</v>
+      </c>
+      <c r="V21">
+        <v>2.75</v>
+      </c>
+      <c r="W21">
+        <v>1.4</v>
+      </c>
+      <c r="X21">
+        <v>7.2</v>
+      </c>
+      <c r="Y21">
+        <v>1.07</v>
+      </c>
+      <c r="Z21">
+        <v>1.75</v>
+      </c>
+      <c r="AA21">
+        <v>3.6</v>
+      </c>
+      <c r="AB21">
+        <v>3.7</v>
+      </c>
+      <c r="AC21">
+        <v>1.02</v>
+      </c>
+      <c r="AD21">
+        <v>8.9</v>
+      </c>
+      <c r="AE21">
+        <v>1.28</v>
+      </c>
+      <c r="AF21">
+        <v>3.4</v>
+      </c>
+      <c r="AG21">
+        <v>1.8</v>
+      </c>
+      <c r="AH21">
+        <v>1.83</v>
+      </c>
+      <c r="AI21">
+        <v>1.83</v>
+      </c>
+      <c r="AJ21">
+        <v>1.9</v>
+      </c>
+      <c r="AK21">
+        <v>1.15</v>
+      </c>
+      <c r="AL21">
+        <v>1.2</v>
+      </c>
+      <c r="AM21">
+        <v>2.05</v>
+      </c>
+      <c r="AN21">
+        <v>3</v>
+      </c>
+      <c r="AO21">
+        <v>3</v>
+      </c>
+      <c r="AP21">
+        <v>3</v>
+      </c>
+      <c r="AQ21">
+        <v>1.5</v>
+      </c>
+      <c r="AR21">
+        <v>2.61</v>
+      </c>
+      <c r="AS21">
+        <v>2.24</v>
+      </c>
+      <c r="AT21">
+        <v>4.85</v>
+      </c>
+      <c r="AU21">
+        <v>9</v>
+      </c>
+      <c r="AV21">
+        <v>2</v>
+      </c>
+      <c r="AW21">
+        <v>7</v>
+      </c>
+      <c r="AX21">
+        <v>5</v>
+      </c>
+      <c r="AY21">
+        <v>16</v>
+      </c>
+      <c r="AZ21">
+        <v>7</v>
+      </c>
+      <c r="BA21">
+        <v>7</v>
+      </c>
+      <c r="BB21">
+        <v>2</v>
+      </c>
+      <c r="BC21">
+        <v>9</v>
+      </c>
+      <c r="BD21">
+        <v>0</v>
+      </c>
+      <c r="BE21">
+        <v>0</v>
+      </c>
+      <c r="BF21">
+        <v>0</v>
+      </c>
+      <c r="BG21">
+        <v>0</v>
+      </c>
+      <c r="BH21">
+        <v>0</v>
+      </c>
+      <c r="BI21">
+        <v>0</v>
+      </c>
+      <c r="BJ21">
+        <v>0</v>
+      </c>
+      <c r="BK21">
+        <v>0</v>
+      </c>
+      <c r="BL21">
+        <v>0</v>
+      </c>
+      <c r="BM21">
+        <v>0</v>
+      </c>
+      <c r="BN21">
+        <v>0</v>
+      </c>
+      <c r="BO21">
+        <v>0</v>
+      </c>
+      <c r="BP21">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="113">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -298,6 +298,18 @@
     <t>['24', '64']</t>
   </si>
   <si>
+    <t>['77', '81']</t>
+  </si>
+  <si>
+    <t>['21']</t>
+  </si>
+  <si>
+    <t>['32', '64', '90+5']</t>
+  </si>
+  <si>
+    <t>['41', '43', '51', '87']</t>
+  </si>
+  <si>
     <t>['14', '18', '24', '66', '83', '87']</t>
   </si>
   <si>
@@ -329,6 +341,18 @@
   </si>
   <si>
     <t>['25', '79']</t>
+  </si>
+  <si>
+    <t>['45+2']</t>
+  </si>
+  <si>
+    <t>['26', '31', '41', '54', '89']</t>
+  </si>
+  <si>
+    <t>['12']</t>
+  </si>
+  <si>
+    <t>['55', '69', '83']</t>
   </si>
 </sst>
 </file>
@@ -690,7 +714,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP21"/>
+  <dimension ref="A1:BP25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1027,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ2">
         <v>0</v>
@@ -1155,7 +1179,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1567,7 +1591,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="Q5">
         <v>2.05</v>
@@ -1648,7 +1672,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ5">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1773,7 +1797,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2185,7 +2209,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2469,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AQ9">
         <v>0</v>
@@ -2597,7 +2621,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="Q10">
         <v>1.8</v>
@@ -2803,7 +2827,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="Q11">
         <v>1.91</v>
@@ -2881,7 +2905,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ11">
         <v>0.5</v>
@@ -3009,7 +3033,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3215,7 +3239,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Q13">
         <v>2.88</v>
@@ -3421,7 +3445,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3502,7 +3526,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ14">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3627,7 +3651,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -3911,7 +3935,7 @@
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ16">
         <v>2.33</v>
@@ -4245,7 +4269,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -5019,6 +5043,830 @@
         <v>0</v>
       </c>
       <c r="BP21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:68">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>7325153</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="2">
+        <v>45387.54166666666</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="G22" t="s">
+        <v>79</v>
+      </c>
+      <c r="H22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>2</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>3</v>
+      </c>
+      <c r="O22" t="s">
+        <v>94</v>
+      </c>
+      <c r="P22" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q22">
+        <v>4</v>
+      </c>
+      <c r="R22">
+        <v>2.25</v>
+      </c>
+      <c r="S22">
+        <v>2.4</v>
+      </c>
+      <c r="T22">
+        <v>1.3</v>
+      </c>
+      <c r="U22">
+        <v>3.2</v>
+      </c>
+      <c r="V22">
+        <v>2.5</v>
+      </c>
+      <c r="W22">
+        <v>1.48</v>
+      </c>
+      <c r="X22">
+        <v>6</v>
+      </c>
+      <c r="Y22">
+        <v>1.1</v>
+      </c>
+      <c r="Z22">
+        <v>3.3</v>
+      </c>
+      <c r="AA22">
+        <v>2.93</v>
+      </c>
+      <c r="AB22">
+        <v>1.83</v>
+      </c>
+      <c r="AC22">
+        <v>1.02</v>
+      </c>
+      <c r="AD22">
+        <v>12</v>
+      </c>
+      <c r="AE22">
+        <v>1.22</v>
+      </c>
+      <c r="AF22">
+        <v>4</v>
+      </c>
+      <c r="AG22">
+        <v>1.68</v>
+      </c>
+      <c r="AH22">
+        <v>2.06</v>
+      </c>
+      <c r="AI22">
+        <v>1.6</v>
+      </c>
+      <c r="AJ22">
+        <v>2.25</v>
+      </c>
+      <c r="AK22">
+        <v>1.7</v>
+      </c>
+      <c r="AL22">
+        <v>1.3</v>
+      </c>
+      <c r="AM22">
+        <v>1.25</v>
+      </c>
+      <c r="AN22">
+        <v>1</v>
+      </c>
+      <c r="AO22">
+        <v>2</v>
+      </c>
+      <c r="AP22">
+        <v>2</v>
+      </c>
+      <c r="AQ22">
+        <v>1.33</v>
+      </c>
+      <c r="AR22">
+        <v>0.74</v>
+      </c>
+      <c r="AS22">
+        <v>1.7</v>
+      </c>
+      <c r="AT22">
+        <v>2.44</v>
+      </c>
+      <c r="AU22">
+        <v>4</v>
+      </c>
+      <c r="AV22">
+        <v>6</v>
+      </c>
+      <c r="AW22">
+        <v>4</v>
+      </c>
+      <c r="AX22">
+        <v>10</v>
+      </c>
+      <c r="AY22">
+        <v>8</v>
+      </c>
+      <c r="AZ22">
+        <v>16</v>
+      </c>
+      <c r="BA22">
+        <v>0</v>
+      </c>
+      <c r="BB22">
+        <v>9</v>
+      </c>
+      <c r="BC22">
+        <v>9</v>
+      </c>
+      <c r="BD22">
+        <v>0</v>
+      </c>
+      <c r="BE22">
+        <v>0</v>
+      </c>
+      <c r="BF22">
+        <v>0</v>
+      </c>
+      <c r="BG22">
+        <v>0</v>
+      </c>
+      <c r="BH22">
+        <v>0</v>
+      </c>
+      <c r="BI22">
+        <v>0</v>
+      </c>
+      <c r="BJ22">
+        <v>0</v>
+      </c>
+      <c r="BK22">
+        <v>0</v>
+      </c>
+      <c r="BL22">
+        <v>0</v>
+      </c>
+      <c r="BM22">
+        <v>0</v>
+      </c>
+      <c r="BN22">
+        <v>0</v>
+      </c>
+      <c r="BO22">
+        <v>0</v>
+      </c>
+      <c r="BP22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:68">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>7325154</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="2">
+        <v>45388.27083333334</v>
+      </c>
+      <c r="F23">
+        <v>5</v>
+      </c>
+      <c r="G23" t="s">
+        <v>76</v>
+      </c>
+      <c r="H23" t="s">
+        <v>72</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
+      <c r="K23">
+        <v>4</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>5</v>
+      </c>
+      <c r="N23">
+        <v>6</v>
+      </c>
+      <c r="O23" t="s">
+        <v>95</v>
+      </c>
+      <c r="P23" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q23">
+        <v>6</v>
+      </c>
+      <c r="R23">
+        <v>2.2</v>
+      </c>
+      <c r="S23">
+        <v>2.1</v>
+      </c>
+      <c r="T23">
+        <v>1.36</v>
+      </c>
+      <c r="U23">
+        <v>2.88</v>
+      </c>
+      <c r="V23">
+        <v>2.75</v>
+      </c>
+      <c r="W23">
+        <v>1.4</v>
+      </c>
+      <c r="X23">
+        <v>6.5</v>
+      </c>
+      <c r="Y23">
+        <v>1.08</v>
+      </c>
+      <c r="Z23">
+        <v>5.5</v>
+      </c>
+      <c r="AA23">
+        <v>4</v>
+      </c>
+      <c r="AB23">
+        <v>1.53</v>
+      </c>
+      <c r="AC23">
+        <v>1.03</v>
+      </c>
+      <c r="AD23">
+        <v>10</v>
+      </c>
+      <c r="AE23">
+        <v>1.25</v>
+      </c>
+      <c r="AF23">
+        <v>3.5</v>
+      </c>
+      <c r="AG23">
+        <v>1.83</v>
+      </c>
+      <c r="AH23">
+        <v>1.9</v>
+      </c>
+      <c r="AI23">
+        <v>1.73</v>
+      </c>
+      <c r="AJ23">
+        <v>2.05</v>
+      </c>
+      <c r="AK23">
+        <v>1.95</v>
+      </c>
+      <c r="AL23">
+        <v>1.24</v>
+      </c>
+      <c r="AM23">
+        <v>1.19</v>
+      </c>
+      <c r="AN23">
+        <v>3</v>
+      </c>
+      <c r="AO23">
+        <v>3</v>
+      </c>
+      <c r="AP23">
+        <v>1.5</v>
+      </c>
+      <c r="AQ23">
+        <v>3</v>
+      </c>
+      <c r="AR23">
+        <v>2.56</v>
+      </c>
+      <c r="AS23">
+        <v>2.42</v>
+      </c>
+      <c r="AT23">
+        <v>4.98</v>
+      </c>
+      <c r="AU23">
+        <v>8</v>
+      </c>
+      <c r="AV23">
+        <v>9</v>
+      </c>
+      <c r="AW23">
+        <v>5</v>
+      </c>
+      <c r="AX23">
+        <v>7</v>
+      </c>
+      <c r="AY23">
+        <v>13</v>
+      </c>
+      <c r="AZ23">
+        <v>16</v>
+      </c>
+      <c r="BA23">
+        <v>3</v>
+      </c>
+      <c r="BB23">
+        <v>7</v>
+      </c>
+      <c r="BC23">
+        <v>10</v>
+      </c>
+      <c r="BD23">
+        <v>0</v>
+      </c>
+      <c r="BE23">
+        <v>0</v>
+      </c>
+      <c r="BF23">
+        <v>0</v>
+      </c>
+      <c r="BG23">
+        <v>0</v>
+      </c>
+      <c r="BH23">
+        <v>0</v>
+      </c>
+      <c r="BI23">
+        <v>0</v>
+      </c>
+      <c r="BJ23">
+        <v>0</v>
+      </c>
+      <c r="BK23">
+        <v>0</v>
+      </c>
+      <c r="BL23">
+        <v>0</v>
+      </c>
+      <c r="BM23">
+        <v>0</v>
+      </c>
+      <c r="BN23">
+        <v>0</v>
+      </c>
+      <c r="BO23">
+        <v>0</v>
+      </c>
+      <c r="BP23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:68">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>7325155</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="2">
+        <v>45388.35416666666</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+      <c r="G24" t="s">
+        <v>77</v>
+      </c>
+      <c r="H24" t="s">
+        <v>71</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>3</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>4</v>
+      </c>
+      <c r="O24" t="s">
+        <v>96</v>
+      </c>
+      <c r="P24" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q24">
+        <v>1.67</v>
+      </c>
+      <c r="R24">
+        <v>2.6</v>
+      </c>
+      <c r="S24">
+        <v>8</v>
+      </c>
+      <c r="T24">
+        <v>1.29</v>
+      </c>
+      <c r="U24">
+        <v>3.25</v>
+      </c>
+      <c r="V24">
+        <v>2.31</v>
+      </c>
+      <c r="W24">
+        <v>1.56</v>
+      </c>
+      <c r="X24">
+        <v>5.5</v>
+      </c>
+      <c r="Y24">
+        <v>1.12</v>
+      </c>
+      <c r="Z24">
+        <v>1.2</v>
+      </c>
+      <c r="AA24">
+        <v>6</v>
+      </c>
+      <c r="AB24">
+        <v>13</v>
+      </c>
+      <c r="AC24">
+        <v>1.01</v>
+      </c>
+      <c r="AD24">
+        <v>17</v>
+      </c>
+      <c r="AE24">
+        <v>1.18</v>
+      </c>
+      <c r="AF24">
+        <v>4.5</v>
+      </c>
+      <c r="AG24">
+        <v>1.54</v>
+      </c>
+      <c r="AH24">
+        <v>2.33</v>
+      </c>
+      <c r="AI24">
+        <v>1.95</v>
+      </c>
+      <c r="AJ24">
+        <v>1.8</v>
+      </c>
+      <c r="AK24">
+        <v>1.07</v>
+      </c>
+      <c r="AL24">
+        <v>1.14</v>
+      </c>
+      <c r="AM24">
+        <v>2.9</v>
+      </c>
+      <c r="AN24">
+        <v>3</v>
+      </c>
+      <c r="AO24">
+        <v>0</v>
+      </c>
+      <c r="AP24">
+        <v>3</v>
+      </c>
+      <c r="AQ24">
+        <v>0</v>
+      </c>
+      <c r="AR24">
+        <v>2.63</v>
+      </c>
+      <c r="AS24">
+        <v>1.76</v>
+      </c>
+      <c r="AT24">
+        <v>4.39</v>
+      </c>
+      <c r="AU24">
+        <v>11</v>
+      </c>
+      <c r="AV24">
+        <v>6</v>
+      </c>
+      <c r="AW24">
+        <v>9</v>
+      </c>
+      <c r="AX24">
+        <v>7</v>
+      </c>
+      <c r="AY24">
+        <v>20</v>
+      </c>
+      <c r="AZ24">
+        <v>13</v>
+      </c>
+      <c r="BA24">
+        <v>8</v>
+      </c>
+      <c r="BB24">
+        <v>3</v>
+      </c>
+      <c r="BC24">
+        <v>11</v>
+      </c>
+      <c r="BD24">
+        <v>0</v>
+      </c>
+      <c r="BE24">
+        <v>0</v>
+      </c>
+      <c r="BF24">
+        <v>0</v>
+      </c>
+      <c r="BG24">
+        <v>0</v>
+      </c>
+      <c r="BH24">
+        <v>0</v>
+      </c>
+      <c r="BI24">
+        <v>0</v>
+      </c>
+      <c r="BJ24">
+        <v>0</v>
+      </c>
+      <c r="BK24">
+        <v>0</v>
+      </c>
+      <c r="BL24">
+        <v>0</v>
+      </c>
+      <c r="BM24">
+        <v>0</v>
+      </c>
+      <c r="BN24">
+        <v>0</v>
+      </c>
+      <c r="BO24">
+        <v>0</v>
+      </c>
+      <c r="BP24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:68">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>7325156</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="2">
+        <v>45388.45833333334</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
+      <c r="G25" t="s">
+        <v>70</v>
+      </c>
+      <c r="H25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>4</v>
+      </c>
+      <c r="M25">
+        <v>3</v>
+      </c>
+      <c r="N25">
+        <v>7</v>
+      </c>
+      <c r="O25" t="s">
+        <v>97</v>
+      </c>
+      <c r="P25" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q25">
+        <v>1.53</v>
+      </c>
+      <c r="R25">
+        <v>2.75</v>
+      </c>
+      <c r="S25">
+        <v>10</v>
+      </c>
+      <c r="T25">
+        <v>1.22</v>
+      </c>
+      <c r="U25">
+        <v>3.75</v>
+      </c>
+      <c r="V25">
+        <v>2.2</v>
+      </c>
+      <c r="W25">
+        <v>1.62</v>
+      </c>
+      <c r="X25">
+        <v>5</v>
+      </c>
+      <c r="Y25">
+        <v>1.14</v>
+      </c>
+      <c r="Z25">
+        <v>1.24</v>
+      </c>
+      <c r="AA25">
+        <v>5.8</v>
+      </c>
+      <c r="AB25">
+        <v>8.6</v>
+      </c>
+      <c r="AC25">
+        <v>1.01</v>
+      </c>
+      <c r="AD25">
+        <v>21</v>
+      </c>
+      <c r="AE25">
+        <v>1.12</v>
+      </c>
+      <c r="AF25">
+        <v>5.5</v>
+      </c>
+      <c r="AG25">
+        <v>1.44</v>
+      </c>
+      <c r="AH25">
+        <v>2.6</v>
+      </c>
+      <c r="AI25">
+        <v>1.95</v>
+      </c>
+      <c r="AJ25">
+        <v>1.81</v>
+      </c>
+      <c r="AK25">
+        <v>1.14</v>
+      </c>
+      <c r="AL25">
+        <v>1.18</v>
+      </c>
+      <c r="AM25">
+        <v>2.1</v>
+      </c>
+      <c r="AN25">
+        <v>2</v>
+      </c>
+      <c r="AO25">
+        <v>0</v>
+      </c>
+      <c r="AP25">
+        <v>2.33</v>
+      </c>
+      <c r="AQ25">
+        <v>0</v>
+      </c>
+      <c r="AR25">
+        <v>1.98</v>
+      </c>
+      <c r="AS25">
+        <v>1.08</v>
+      </c>
+      <c r="AT25">
+        <v>3.06</v>
+      </c>
+      <c r="AU25">
+        <v>3</v>
+      </c>
+      <c r="AV25">
+        <v>5</v>
+      </c>
+      <c r="AW25">
+        <v>7</v>
+      </c>
+      <c r="AX25">
+        <v>7</v>
+      </c>
+      <c r="AY25">
+        <v>10</v>
+      </c>
+      <c r="AZ25">
+        <v>12</v>
+      </c>
+      <c r="BA25">
+        <v>10</v>
+      </c>
+      <c r="BB25">
+        <v>5</v>
+      </c>
+      <c r="BC25">
+        <v>15</v>
+      </c>
+      <c r="BD25">
+        <v>0</v>
+      </c>
+      <c r="BE25">
+        <v>0</v>
+      </c>
+      <c r="BF25">
+        <v>0</v>
+      </c>
+      <c r="BG25">
+        <v>0</v>
+      </c>
+      <c r="BH25">
+        <v>0</v>
+      </c>
+      <c r="BI25">
+        <v>0</v>
+      </c>
+      <c r="BJ25">
+        <v>0</v>
+      </c>
+      <c r="BK25">
+        <v>0</v>
+      </c>
+      <c r="BL25">
+        <v>0</v>
+      </c>
+      <c r="BM25">
+        <v>0</v>
+      </c>
+      <c r="BN25">
+        <v>0</v>
+      </c>
+      <c r="BO25">
+        <v>0</v>
+      </c>
+      <c r="BP25">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="115">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -310,6 +310,9 @@
     <t>['41', '43', '51', '87']</t>
   </si>
   <si>
+    <t>['28', '65', '88']</t>
+  </si>
+  <si>
     <t>['14', '18', '24', '66', '83', '87']</t>
   </si>
   <si>
@@ -353,6 +356,9 @@
   </si>
   <si>
     <t>['55', '69', '83']</t>
+  </si>
+  <si>
+    <t>['79']</t>
   </si>
 </sst>
 </file>
@@ -714,7 +720,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP25"/>
+  <dimension ref="A1:BP26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1179,7 +1185,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1591,7 +1597,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q5">
         <v>2.05</v>
@@ -1669,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ5">
         <v>1.33</v>
@@ -1797,7 +1803,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2209,7 +2215,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2621,7 +2627,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q10">
         <v>1.8</v>
@@ -2827,7 +2833,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q11">
         <v>1.91</v>
@@ -3033,7 +3039,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3111,7 +3117,7 @@
         <v>3</v>
       </c>
       <c r="AP12">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ12">
         <v>3</v>
@@ -3239,7 +3245,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q13">
         <v>2.88</v>
@@ -3445,7 +3451,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3651,7 +3657,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4269,7 +4275,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -5093,7 +5099,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5186,22 +5192,22 @@
         <v>2.44</v>
       </c>
       <c r="AU22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV22">
+        <v>7</v>
+      </c>
+      <c r="AW22">
         <v>6</v>
       </c>
-      <c r="AW22">
-        <v>4</v>
-      </c>
       <c r="AX22">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AY22">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ22">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="BA22">
         <v>0</v>
@@ -5299,7 +5305,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5505,7 +5511,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q24">
         <v>1.67</v>
@@ -5711,7 +5717,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q25">
         <v>1.53</v>
@@ -5804,69 +5810,275 @@
         <v>3.06</v>
       </c>
       <c r="AU25">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AV25">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW25">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX25">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AY25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AZ25">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="BA25">
         <v>10</v>
       </c>
       <c r="BB25">
+        <v>4</v>
+      </c>
+      <c r="BC25">
+        <v>14</v>
+      </c>
+      <c r="BD25">
+        <v>0</v>
+      </c>
+      <c r="BE25">
+        <v>0</v>
+      </c>
+      <c r="BF25">
+        <v>0</v>
+      </c>
+      <c r="BG25">
+        <v>0</v>
+      </c>
+      <c r="BH25">
+        <v>0</v>
+      </c>
+      <c r="BI25">
+        <v>0</v>
+      </c>
+      <c r="BJ25">
+        <v>0</v>
+      </c>
+      <c r="BK25">
+        <v>0</v>
+      </c>
+      <c r="BL25">
+        <v>0</v>
+      </c>
+      <c r="BM25">
+        <v>0</v>
+      </c>
+      <c r="BN25">
+        <v>0</v>
+      </c>
+      <c r="BO25">
+        <v>0</v>
+      </c>
+      <c r="BP25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:68">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>7325157</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="2">
+        <v>45389.35416666666</v>
+      </c>
+      <c r="F26">
         <v>5</v>
       </c>
-      <c r="BC25">
-        <v>15</v>
-      </c>
-      <c r="BD25">
-        <v>0</v>
-      </c>
-      <c r="BE25">
-        <v>0</v>
-      </c>
-      <c r="BF25">
-        <v>0</v>
-      </c>
-      <c r="BG25">
-        <v>0</v>
-      </c>
-      <c r="BH25">
-        <v>0</v>
-      </c>
-      <c r="BI25">
-        <v>0</v>
-      </c>
-      <c r="BJ25">
-        <v>0</v>
-      </c>
-      <c r="BK25">
-        <v>0</v>
-      </c>
-      <c r="BL25">
-        <v>0</v>
-      </c>
-      <c r="BM25">
-        <v>0</v>
-      </c>
-      <c r="BN25">
-        <v>0</v>
-      </c>
-      <c r="BO25">
-        <v>0</v>
-      </c>
-      <c r="BP25">
+      <c r="G26" t="s">
+        <v>73</v>
+      </c>
+      <c r="H26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>3</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>4</v>
+      </c>
+      <c r="O26" t="s">
+        <v>98</v>
+      </c>
+      <c r="P26" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q26">
+        <v>2.72</v>
+      </c>
+      <c r="R26">
+        <v>2</v>
+      </c>
+      <c r="S26">
+        <v>3.96</v>
+      </c>
+      <c r="T26">
+        <v>1.4</v>
+      </c>
+      <c r="U26">
+        <v>2.75</v>
+      </c>
+      <c r="V26">
+        <v>3</v>
+      </c>
+      <c r="W26">
+        <v>1.33</v>
+      </c>
+      <c r="X26">
+        <v>7.5</v>
+      </c>
+      <c r="Y26">
+        <v>1.06</v>
+      </c>
+      <c r="Z26">
+        <v>2.1</v>
+      </c>
+      <c r="AA26">
+        <v>3.07</v>
+      </c>
+      <c r="AB26">
+        <v>3.35</v>
+      </c>
+      <c r="AC26">
+        <v>1.04</v>
+      </c>
+      <c r="AD26">
+        <v>9</v>
+      </c>
+      <c r="AE26">
+        <v>1.3</v>
+      </c>
+      <c r="AF26">
+        <v>3.2</v>
+      </c>
+      <c r="AG26">
+        <v>1.96</v>
+      </c>
+      <c r="AH26">
+        <v>1.75</v>
+      </c>
+      <c r="AI26">
+        <v>1.75</v>
+      </c>
+      <c r="AJ26">
+        <v>2.03</v>
+      </c>
+      <c r="AK26">
+        <v>1.28</v>
+      </c>
+      <c r="AL26">
+        <v>1.32</v>
+      </c>
+      <c r="AM26">
+        <v>1.6</v>
+      </c>
+      <c r="AN26">
+        <v>0.5</v>
+      </c>
+      <c r="AO26">
+        <v>0</v>
+      </c>
+      <c r="AP26">
+        <v>1.33</v>
+      </c>
+      <c r="AQ26">
+        <v>0</v>
+      </c>
+      <c r="AR26">
+        <v>1.42</v>
+      </c>
+      <c r="AS26">
+        <v>0.64</v>
+      </c>
+      <c r="AT26">
+        <v>2.06</v>
+      </c>
+      <c r="AU26">
+        <v>6</v>
+      </c>
+      <c r="AV26">
+        <v>7</v>
+      </c>
+      <c r="AW26">
+        <v>6</v>
+      </c>
+      <c r="AX26">
+        <v>6</v>
+      </c>
+      <c r="AY26">
+        <v>12</v>
+      </c>
+      <c r="AZ26">
+        <v>13</v>
+      </c>
+      <c r="BA26">
+        <v>3</v>
+      </c>
+      <c r="BB26">
+        <v>7</v>
+      </c>
+      <c r="BC26">
+        <v>10</v>
+      </c>
+      <c r="BD26">
+        <v>0</v>
+      </c>
+      <c r="BE26">
+        <v>0</v>
+      </c>
+      <c r="BF26">
+        <v>0</v>
+      </c>
+      <c r="BG26">
+        <v>0</v>
+      </c>
+      <c r="BH26">
+        <v>0</v>
+      </c>
+      <c r="BI26">
+        <v>0</v>
+      </c>
+      <c r="BJ26">
+        <v>0</v>
+      </c>
+      <c r="BK26">
+        <v>0</v>
+      </c>
+      <c r="BL26">
+        <v>0</v>
+      </c>
+      <c r="BM26">
+        <v>0</v>
+      </c>
+      <c r="BN26">
+        <v>0</v>
+      </c>
+      <c r="BO26">
+        <v>0</v>
+      </c>
+      <c r="BP26">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="117">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -313,6 +313,9 @@
     <t>['28', '65', '88']</t>
   </si>
   <si>
+    <t>['76']</t>
+  </si>
+  <si>
     <t>['14', '18', '24', '66', '83', '87']</t>
   </si>
   <si>
@@ -359,6 +362,9 @@
   </si>
   <si>
     <t>['79']</t>
+  </si>
+  <si>
+    <t>['12', '35']</t>
   </si>
 </sst>
 </file>
@@ -720,7 +726,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP26"/>
+  <dimension ref="A1:BP27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1185,7 +1191,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1597,7 +1603,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q5">
         <v>2.05</v>
@@ -1803,7 +1809,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2087,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ7">
         <v>0</v>
@@ -2215,7 +2221,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2627,7 +2633,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q10">
         <v>1.8</v>
@@ -2833,7 +2839,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q11">
         <v>1.91</v>
@@ -3039,7 +3045,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3245,7 +3251,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q13">
         <v>2.88</v>
@@ -3451,7 +3457,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3657,7 +3663,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -3738,7 +3744,7 @@
         <v>1</v>
       </c>
       <c r="AQ15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR15">
         <v>0.5</v>
@@ -4275,7 +4281,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -4765,7 +4771,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ20">
         <v>0.5</v>
@@ -5099,7 +5105,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5305,7 +5311,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5511,7 +5517,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q24">
         <v>1.67</v>
@@ -5592,7 +5598,7 @@
         <v>3</v>
       </c>
       <c r="AQ24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR24">
         <v>2.63</v>
@@ -5717,7 +5723,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q25">
         <v>1.53</v>
@@ -5923,7 +5929,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q26">
         <v>2.72</v>
@@ -6079,6 +6085,212 @@
         <v>0</v>
       </c>
       <c r="BP26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:68">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>7325158</v>
+      </c>
+      <c r="C27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="2">
+        <v>45395.27083333334</v>
+      </c>
+      <c r="F27">
+        <v>6</v>
+      </c>
+      <c r="G27" t="s">
+        <v>75</v>
+      </c>
+      <c r="H27" t="s">
+        <v>71</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>2</v>
+      </c>
+      <c r="N27">
+        <v>3</v>
+      </c>
+      <c r="O27" t="s">
+        <v>99</v>
+      </c>
+      <c r="P27" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q27">
+        <v>2.88</v>
+      </c>
+      <c r="R27">
+        <v>2.2</v>
+      </c>
+      <c r="S27">
+        <v>3.4</v>
+      </c>
+      <c r="T27">
+        <v>1.33</v>
+      </c>
+      <c r="U27">
+        <v>3</v>
+      </c>
+      <c r="V27">
+        <v>2.4</v>
+      </c>
+      <c r="W27">
+        <v>1.5</v>
+      </c>
+      <c r="X27">
+        <v>5.5</v>
+      </c>
+      <c r="Y27">
+        <v>1.11</v>
+      </c>
+      <c r="Z27">
+        <v>2.27</v>
+      </c>
+      <c r="AA27">
+        <v>3.45</v>
+      </c>
+      <c r="AB27">
+        <v>2.87</v>
+      </c>
+      <c r="AC27">
+        <v>1.02</v>
+      </c>
+      <c r="AD27">
+        <v>10</v>
+      </c>
+      <c r="AE27">
+        <v>1.22</v>
+      </c>
+      <c r="AF27">
+        <v>3.8</v>
+      </c>
+      <c r="AG27">
+        <v>1.46</v>
+      </c>
+      <c r="AH27">
+        <v>2.23</v>
+      </c>
+      <c r="AI27">
+        <v>1.57</v>
+      </c>
+      <c r="AJ27">
+        <v>2.25</v>
+      </c>
+      <c r="AK27">
+        <v>1.28</v>
+      </c>
+      <c r="AL27">
+        <v>1.3</v>
+      </c>
+      <c r="AM27">
+        <v>1.65</v>
+      </c>
+      <c r="AN27">
+        <v>2</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <v>1.33</v>
+      </c>
+      <c r="AQ27">
+        <v>1</v>
+      </c>
+      <c r="AR27">
+        <v>2.19</v>
+      </c>
+      <c r="AS27">
+        <v>1.68</v>
+      </c>
+      <c r="AT27">
+        <v>3.87</v>
+      </c>
+      <c r="AU27">
+        <v>8</v>
+      </c>
+      <c r="AV27">
+        <v>8</v>
+      </c>
+      <c r="AW27">
+        <v>11</v>
+      </c>
+      <c r="AX27">
+        <v>4</v>
+      </c>
+      <c r="AY27">
+        <v>19</v>
+      </c>
+      <c r="AZ27">
+        <v>12</v>
+      </c>
+      <c r="BA27">
+        <v>10</v>
+      </c>
+      <c r="BB27">
+        <v>2</v>
+      </c>
+      <c r="BC27">
+        <v>12</v>
+      </c>
+      <c r="BD27">
+        <v>0</v>
+      </c>
+      <c r="BE27">
+        <v>0</v>
+      </c>
+      <c r="BF27">
+        <v>0</v>
+      </c>
+      <c r="BG27">
+        <v>0</v>
+      </c>
+      <c r="BH27">
+        <v>0</v>
+      </c>
+      <c r="BI27">
+        <v>0</v>
+      </c>
+      <c r="BJ27">
+        <v>0</v>
+      </c>
+      <c r="BK27">
+        <v>0</v>
+      </c>
+      <c r="BL27">
+        <v>0</v>
+      </c>
+      <c r="BM27">
+        <v>0</v>
+      </c>
+      <c r="BN27">
+        <v>0</v>
+      </c>
+      <c r="BO27">
+        <v>0</v>
+      </c>
+      <c r="BP27">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="124">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -316,6 +316,18 @@
     <t>['76']</t>
   </si>
   <si>
+    <t>['69', '83']</t>
+  </si>
+  <si>
+    <t>['26', '51']</t>
+  </si>
+  <si>
+    <t>['86']</t>
+  </si>
+  <si>
+    <t>['20', '51']</t>
+  </si>
+  <si>
     <t>['14', '18', '24', '66', '83', '87']</t>
   </si>
   <si>
@@ -365,6 +377,15 @@
   </si>
   <si>
     <t>['12', '35']</t>
+  </si>
+  <si>
+    <t>['58', '79']</t>
+  </si>
+  <si>
+    <t>['14', '30', '34']</t>
+  </si>
+  <si>
+    <t>['10']</t>
   </si>
 </sst>
 </file>
@@ -726,7 +747,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP27"/>
+  <dimension ref="A1:BP31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1191,7 +1212,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1603,7 +1624,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Q5">
         <v>2.05</v>
@@ -1809,7 +1830,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -1887,10 +1908,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
+        <v>0.75</v>
+      </c>
+      <c r="AQ6">
         <v>1</v>
-      </c>
-      <c r="AQ6">
-        <v>1.5</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2221,7 +2242,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2505,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ9">
         <v>0</v>
@@ -2633,7 +2654,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="Q10">
         <v>1.8</v>
@@ -2839,7 +2860,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="Q11">
         <v>1.91</v>
@@ -2920,7 +2941,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ11">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR11">
         <v>1.79</v>
@@ -3045,7 +3066,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3251,7 +3272,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="Q13">
         <v>2.88</v>
@@ -3332,7 +3353,7 @@
         <v>3</v>
       </c>
       <c r="AQ13">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR13">
         <v>2.65</v>
@@ -3457,7 +3478,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3535,7 +3556,7 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ14">
         <v>1.33</v>
@@ -3663,7 +3684,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -3741,7 +3762,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ15">
         <v>1</v>
@@ -4156,7 +4177,7 @@
         <v>1</v>
       </c>
       <c r="AQ17">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR17">
         <v>0.95</v>
@@ -4281,7 +4302,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -4359,7 +4380,7 @@
         <v>2</v>
       </c>
       <c r="AP18">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ18">
         <v>2.33</v>
@@ -4565,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ19">
         <v>0</v>
@@ -4774,7 +4795,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ20">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR20">
         <v>2.07</v>
@@ -4980,7 +5001,7 @@
         <v>3</v>
       </c>
       <c r="AQ21">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR21">
         <v>2.61</v>
@@ -5105,7 +5126,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5311,7 +5332,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5389,7 +5410,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ23">
         <v>3</v>
@@ -5517,7 +5538,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="Q24">
         <v>1.67</v>
@@ -5723,7 +5744,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="Q25">
         <v>1.53</v>
@@ -5929,7 +5950,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Q26">
         <v>2.72</v>
@@ -6135,7 +6156,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6291,6 +6312,830 @@
         <v>0</v>
       </c>
       <c r="BP27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:68">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>7325160</v>
+      </c>
+      <c r="C28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="2">
+        <v>45395.45833333334</v>
+      </c>
+      <c r="F28">
+        <v>6</v>
+      </c>
+      <c r="G28" t="s">
+        <v>78</v>
+      </c>
+      <c r="H28" t="s">
+        <v>73</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>2</v>
+      </c>
+      <c r="M28">
+        <v>2</v>
+      </c>
+      <c r="N28">
+        <v>4</v>
+      </c>
+      <c r="O28" t="s">
+        <v>100</v>
+      </c>
+      <c r="P28" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q28">
+        <v>3.1</v>
+      </c>
+      <c r="R28">
+        <v>2.25</v>
+      </c>
+      <c r="S28">
+        <v>3</v>
+      </c>
+      <c r="T28">
+        <v>1.3</v>
+      </c>
+      <c r="U28">
+        <v>3.2</v>
+      </c>
+      <c r="V28">
+        <v>2.38</v>
+      </c>
+      <c r="W28">
+        <v>1.53</v>
+      </c>
+      <c r="X28">
+        <v>5.25</v>
+      </c>
+      <c r="Y28">
+        <v>1.12</v>
+      </c>
+      <c r="Z28">
+        <v>2.32</v>
+      </c>
+      <c r="AA28">
+        <v>3.27</v>
+      </c>
+      <c r="AB28">
+        <v>2.21</v>
+      </c>
+      <c r="AC28">
+        <v>1.02</v>
+      </c>
+      <c r="AD28">
+        <v>10</v>
+      </c>
+      <c r="AE28">
+        <v>1.18</v>
+      </c>
+      <c r="AF28">
+        <v>4.33</v>
+      </c>
+      <c r="AG28">
+        <v>1.67</v>
+      </c>
+      <c r="AH28">
+        <v>2.1</v>
+      </c>
+      <c r="AI28">
+        <v>1.53</v>
+      </c>
+      <c r="AJ28">
+        <v>2.38</v>
+      </c>
+      <c r="AK28">
+        <v>1.5</v>
+      </c>
+      <c r="AL28">
+        <v>1.24</v>
+      </c>
+      <c r="AM28">
+        <v>1.45</v>
+      </c>
+      <c r="AN28">
+        <v>1.5</v>
+      </c>
+      <c r="AO28">
+        <v>0.5</v>
+      </c>
+      <c r="AP28">
+        <v>1.33</v>
+      </c>
+      <c r="AQ28">
+        <v>0.67</v>
+      </c>
+      <c r="AR28">
+        <v>1.8</v>
+      </c>
+      <c r="AS28">
+        <v>1.34</v>
+      </c>
+      <c r="AT28">
+        <v>3.14</v>
+      </c>
+      <c r="AU28">
+        <v>8</v>
+      </c>
+      <c r="AV28">
+        <v>4</v>
+      </c>
+      <c r="AW28">
+        <v>11</v>
+      </c>
+      <c r="AX28">
+        <v>5</v>
+      </c>
+      <c r="AY28">
+        <v>19</v>
+      </c>
+      <c r="AZ28">
+        <v>9</v>
+      </c>
+      <c r="BA28">
+        <v>4</v>
+      </c>
+      <c r="BB28">
+        <v>4</v>
+      </c>
+      <c r="BC28">
+        <v>8</v>
+      </c>
+      <c r="BD28">
+        <v>0</v>
+      </c>
+      <c r="BE28">
+        <v>0</v>
+      </c>
+      <c r="BF28">
+        <v>0</v>
+      </c>
+      <c r="BG28">
+        <v>0</v>
+      </c>
+      <c r="BH28">
+        <v>0</v>
+      </c>
+      <c r="BI28">
+        <v>0</v>
+      </c>
+      <c r="BJ28">
+        <v>0</v>
+      </c>
+      <c r="BK28">
+        <v>0</v>
+      </c>
+      <c r="BL28">
+        <v>0</v>
+      </c>
+      <c r="BM28">
+        <v>0</v>
+      </c>
+      <c r="BN28">
+        <v>0</v>
+      </c>
+      <c r="BO28">
+        <v>0</v>
+      </c>
+      <c r="BP28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:68">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>7325159</v>
+      </c>
+      <c r="C29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="2">
+        <v>45395.54166666666</v>
+      </c>
+      <c r="F29">
+        <v>6</v>
+      </c>
+      <c r="G29" t="s">
+        <v>72</v>
+      </c>
+      <c r="H29" t="s">
+        <v>79</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>2</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>2</v>
+      </c>
+      <c r="O29" t="s">
+        <v>101</v>
+      </c>
+      <c r="P29" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q29">
+        <v>1.36</v>
+      </c>
+      <c r="R29">
+        <v>3.25</v>
+      </c>
+      <c r="S29">
+        <v>15</v>
+      </c>
+      <c r="T29">
+        <v>1.2</v>
+      </c>
+      <c r="U29">
+        <v>4</v>
+      </c>
+      <c r="V29">
+        <v>2.1</v>
+      </c>
+      <c r="W29">
+        <v>1.67</v>
+      </c>
+      <c r="X29">
+        <v>4.5</v>
+      </c>
+      <c r="Y29">
+        <v>1.17</v>
+      </c>
+      <c r="Z29">
+        <v>1.05</v>
+      </c>
+      <c r="AA29">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AB29">
+        <v>18</v>
+      </c>
+      <c r="AC29">
+        <v>1.01</v>
+      </c>
+      <c r="AD29">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AE29">
+        <v>1.09</v>
+      </c>
+      <c r="AF29">
+        <v>5.97</v>
+      </c>
+      <c r="AG29">
+        <v>1.44</v>
+      </c>
+      <c r="AH29">
+        <v>2.6</v>
+      </c>
+      <c r="AI29">
+        <v>2.2</v>
+      </c>
+      <c r="AJ29">
+        <v>1.64</v>
+      </c>
+      <c r="AK29">
+        <v>1.03</v>
+      </c>
+      <c r="AL29">
+        <v>1.09</v>
+      </c>
+      <c r="AM29">
+        <v>3.2</v>
+      </c>
+      <c r="AN29">
+        <v>3</v>
+      </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
+      <c r="AP29">
+        <v>3</v>
+      </c>
+      <c r="AQ29">
+        <v>0</v>
+      </c>
+      <c r="AR29">
+        <v>2.32</v>
+      </c>
+      <c r="AS29">
+        <v>0.84</v>
+      </c>
+      <c r="AT29">
+        <v>3.16</v>
+      </c>
+      <c r="AU29">
+        <v>4</v>
+      </c>
+      <c r="AV29">
+        <v>2</v>
+      </c>
+      <c r="AW29">
+        <v>11</v>
+      </c>
+      <c r="AX29">
+        <v>2</v>
+      </c>
+      <c r="AY29">
+        <v>15</v>
+      </c>
+      <c r="AZ29">
+        <v>4</v>
+      </c>
+      <c r="BA29">
+        <v>7</v>
+      </c>
+      <c r="BB29">
+        <v>1</v>
+      </c>
+      <c r="BC29">
+        <v>8</v>
+      </c>
+      <c r="BD29">
+        <v>0</v>
+      </c>
+      <c r="BE29">
+        <v>0</v>
+      </c>
+      <c r="BF29">
+        <v>0</v>
+      </c>
+      <c r="BG29">
+        <v>0</v>
+      </c>
+      <c r="BH29">
+        <v>0</v>
+      </c>
+      <c r="BI29">
+        <v>0</v>
+      </c>
+      <c r="BJ29">
+        <v>0</v>
+      </c>
+      <c r="BK29">
+        <v>0</v>
+      </c>
+      <c r="BL29">
+        <v>0</v>
+      </c>
+      <c r="BM29">
+        <v>0</v>
+      </c>
+      <c r="BN29">
+        <v>0</v>
+      </c>
+      <c r="BO29">
+        <v>0</v>
+      </c>
+      <c r="BP29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:68">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>7325161</v>
+      </c>
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="2">
+        <v>45396.35416666666</v>
+      </c>
+      <c r="F30">
+        <v>6</v>
+      </c>
+      <c r="G30" t="s">
+        <v>74</v>
+      </c>
+      <c r="H30" t="s">
+        <v>70</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>3</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>3</v>
+      </c>
+      <c r="N30">
+        <v>4</v>
+      </c>
+      <c r="O30" t="s">
+        <v>102</v>
+      </c>
+      <c r="P30" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q30">
+        <v>6</v>
+      </c>
+      <c r="R30">
+        <v>2.4</v>
+      </c>
+      <c r="S30">
+        <v>1.91</v>
+      </c>
+      <c r="T30">
+        <v>1.3</v>
+      </c>
+      <c r="U30">
+        <v>3.2</v>
+      </c>
+      <c r="V30">
+        <v>2.4</v>
+      </c>
+      <c r="W30">
+        <v>1.5</v>
+      </c>
+      <c r="X30">
+        <v>5.25</v>
+      </c>
+      <c r="Y30">
+        <v>1.12</v>
+      </c>
+      <c r="Z30">
+        <v>6</v>
+      </c>
+      <c r="AA30">
+        <v>4.1</v>
+      </c>
+      <c r="AB30">
+        <v>1.47</v>
+      </c>
+      <c r="AC30">
+        <v>1.02</v>
+      </c>
+      <c r="AD30">
+        <v>10</v>
+      </c>
+      <c r="AE30">
+        <v>1.22</v>
+      </c>
+      <c r="AF30">
+        <v>3.8</v>
+      </c>
+      <c r="AG30">
+        <v>1.65</v>
+      </c>
+      <c r="AH30">
+        <v>2.05</v>
+      </c>
+      <c r="AI30">
+        <v>1.8</v>
+      </c>
+      <c r="AJ30">
+        <v>1.91</v>
+      </c>
+      <c r="AK30">
+        <v>2.2</v>
+      </c>
+      <c r="AL30">
+        <v>1.17</v>
+      </c>
+      <c r="AM30">
+        <v>1.12</v>
+      </c>
+      <c r="AN30">
+        <v>1</v>
+      </c>
+      <c r="AO30">
+        <v>0.5</v>
+      </c>
+      <c r="AP30">
+        <v>0.75</v>
+      </c>
+      <c r="AQ30">
+        <v>1.33</v>
+      </c>
+      <c r="AR30">
+        <v>1.13</v>
+      </c>
+      <c r="AS30">
+        <v>1.24</v>
+      </c>
+      <c r="AT30">
+        <v>2.37</v>
+      </c>
+      <c r="AU30">
+        <v>5</v>
+      </c>
+      <c r="AV30">
+        <v>7</v>
+      </c>
+      <c r="AW30">
+        <v>1</v>
+      </c>
+      <c r="AX30">
+        <v>8</v>
+      </c>
+      <c r="AY30">
+        <v>6</v>
+      </c>
+      <c r="AZ30">
+        <v>15</v>
+      </c>
+      <c r="BA30">
+        <v>0</v>
+      </c>
+      <c r="BB30">
+        <v>3</v>
+      </c>
+      <c r="BC30">
+        <v>3</v>
+      </c>
+      <c r="BD30">
+        <v>0</v>
+      </c>
+      <c r="BE30">
+        <v>0</v>
+      </c>
+      <c r="BF30">
+        <v>0</v>
+      </c>
+      <c r="BG30">
+        <v>0</v>
+      </c>
+      <c r="BH30">
+        <v>0</v>
+      </c>
+      <c r="BI30">
+        <v>0</v>
+      </c>
+      <c r="BJ30">
+        <v>0</v>
+      </c>
+      <c r="BK30">
+        <v>0</v>
+      </c>
+      <c r="BL30">
+        <v>0</v>
+      </c>
+      <c r="BM30">
+        <v>0</v>
+      </c>
+      <c r="BN30">
+        <v>0</v>
+      </c>
+      <c r="BO30">
+        <v>0</v>
+      </c>
+      <c r="BP30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:68">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>7325162</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="2">
+        <v>45396.45833333334</v>
+      </c>
+      <c r="F31">
+        <v>6</v>
+      </c>
+      <c r="G31" t="s">
+        <v>76</v>
+      </c>
+      <c r="H31" t="s">
+        <v>77</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>2</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>3</v>
+      </c>
+      <c r="O31" t="s">
+        <v>103</v>
+      </c>
+      <c r="P31" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q31">
+        <v>3</v>
+      </c>
+      <c r="R31">
+        <v>2.1</v>
+      </c>
+      <c r="S31">
+        <v>3.2</v>
+      </c>
+      <c r="T31">
+        <v>1.38</v>
+      </c>
+      <c r="U31">
+        <v>2.9</v>
+      </c>
+      <c r="V31">
+        <v>2.77</v>
+      </c>
+      <c r="W31">
+        <v>1.41</v>
+      </c>
+      <c r="X31">
+        <v>6.95</v>
+      </c>
+      <c r="Y31">
+        <v>1.08</v>
+      </c>
+      <c r="Z31">
+        <v>2.91</v>
+      </c>
+      <c r="AA31">
+        <v>3.56</v>
+      </c>
+      <c r="AB31">
+        <v>2.11</v>
+      </c>
+      <c r="AC31">
+        <v>1.01</v>
+      </c>
+      <c r="AD31">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE31">
+        <v>1.26</v>
+      </c>
+      <c r="AF31">
+        <v>3.34</v>
+      </c>
+      <c r="AG31">
+        <v>1.8</v>
+      </c>
+      <c r="AH31">
+        <v>1.95</v>
+      </c>
+      <c r="AI31">
+        <v>1.67</v>
+      </c>
+      <c r="AJ31">
+        <v>2.1</v>
+      </c>
+      <c r="AK31">
+        <v>1.42</v>
+      </c>
+      <c r="AL31">
+        <v>1.27</v>
+      </c>
+      <c r="AM31">
+        <v>1.48</v>
+      </c>
+      <c r="AN31">
+        <v>1.5</v>
+      </c>
+      <c r="AO31">
+        <v>1.5</v>
+      </c>
+      <c r="AP31">
+        <v>2</v>
+      </c>
+      <c r="AQ31">
+        <v>1</v>
+      </c>
+      <c r="AR31">
+        <v>2.12</v>
+      </c>
+      <c r="AS31">
+        <v>1.56</v>
+      </c>
+      <c r="AT31">
+        <v>3.68</v>
+      </c>
+      <c r="AU31">
+        <v>2</v>
+      </c>
+      <c r="AV31">
+        <v>3</v>
+      </c>
+      <c r="AW31">
+        <v>2</v>
+      </c>
+      <c r="AX31">
+        <v>1</v>
+      </c>
+      <c r="AY31">
+        <v>4</v>
+      </c>
+      <c r="AZ31">
+        <v>4</v>
+      </c>
+      <c r="BA31">
+        <v>2</v>
+      </c>
+      <c r="BB31">
+        <v>1</v>
+      </c>
+      <c r="BC31">
+        <v>3</v>
+      </c>
+      <c r="BD31">
+        <v>0</v>
+      </c>
+      <c r="BE31">
+        <v>0</v>
+      </c>
+      <c r="BF31">
+        <v>0</v>
+      </c>
+      <c r="BG31">
+        <v>0</v>
+      </c>
+      <c r="BH31">
+        <v>0</v>
+      </c>
+      <c r="BI31">
+        <v>0</v>
+      </c>
+      <c r="BJ31">
+        <v>0</v>
+      </c>
+      <c r="BK31">
+        <v>0</v>
+      </c>
+      <c r="BL31">
+        <v>0</v>
+      </c>
+      <c r="BM31">
+        <v>0</v>
+      </c>
+      <c r="BN31">
+        <v>0</v>
+      </c>
+      <c r="BO31">
+        <v>0</v>
+      </c>
+      <c r="BP31">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -6661,19 +6661,19 @@
         <v>3.16</v>
       </c>
       <c r="AU29">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AV29">
         <v>2</v>
       </c>
       <c r="AW29">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="AX29">
         <v>2</v>
       </c>
       <c r="AY29">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="AZ29">
         <v>4</v>
@@ -7073,31 +7073,31 @@
         <v>3.68</v>
       </c>
       <c r="AU31">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AV31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW31">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AX31">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AY31">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="AZ31">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="BA31">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BB31">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BC31">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="BD31">
         <v>0</v>

--- a/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="125">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -328,6 +328,9 @@
     <t>['20', '51']</t>
   </si>
   <si>
+    <t>['79']</t>
+  </si>
+  <si>
     <t>['14', '18', '24', '66', '83', '87']</t>
   </si>
   <si>
@@ -373,9 +376,6 @@
     <t>['55', '69', '83']</t>
   </si>
   <si>
-    <t>['79']</t>
-  </si>
-  <si>
     <t>['12', '35']</t>
   </si>
   <si>
@@ -386,6 +386,9 @@
   </si>
   <si>
     <t>['10']</t>
+  </si>
+  <si>
+    <t>['57', '90']</t>
   </si>
 </sst>
 </file>
@@ -747,7 +750,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP31"/>
+  <dimension ref="A1:BP32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1212,7 +1215,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1624,7 +1627,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q5">
         <v>2.05</v>
@@ -1702,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
         <v>1.33</v>
@@ -1830,7 +1833,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2242,7 +2245,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2654,7 +2657,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q10">
         <v>1.8</v>
@@ -2860,7 +2863,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q11">
         <v>1.91</v>
@@ -3066,7 +3069,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3144,7 +3147,7 @@
         <v>3</v>
       </c>
       <c r="AP12">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ12">
         <v>3</v>
@@ -3272,7 +3275,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q13">
         <v>2.88</v>
@@ -3478,7 +3481,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3684,7 +3687,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4302,7 +4305,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -5126,7 +5129,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5332,7 +5335,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5538,7 +5541,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q24">
         <v>1.67</v>
@@ -5744,7 +5747,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q25">
         <v>1.53</v>
@@ -5950,7 +5953,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="Q26">
         <v>2.72</v>
@@ -6028,7 +6031,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ26">
         <v>0</v>
@@ -7136,6 +7139,212 @@
         <v>0</v>
       </c>
       <c r="BP31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:68">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>7325163</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="2">
+        <v>45398.54166666666</v>
+      </c>
+      <c r="F32">
+        <v>19</v>
+      </c>
+      <c r="G32" t="s">
+        <v>73</v>
+      </c>
+      <c r="H32" t="s">
+        <v>72</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>2</v>
+      </c>
+      <c r="N32">
+        <v>3</v>
+      </c>
+      <c r="O32" t="s">
+        <v>104</v>
+      </c>
+      <c r="P32" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q32">
+        <v>7.5</v>
+      </c>
+      <c r="R32">
+        <v>2.56</v>
+      </c>
+      <c r="S32">
+        <v>1.79</v>
+      </c>
+      <c r="T32">
+        <v>1.25</v>
+      </c>
+      <c r="U32">
+        <v>3.52</v>
+      </c>
+      <c r="V32">
+        <v>2.38</v>
+      </c>
+      <c r="W32">
+        <v>1.53</v>
+      </c>
+      <c r="X32">
+        <v>5.46</v>
+      </c>
+      <c r="Y32">
+        <v>1.11</v>
+      </c>
+      <c r="Z32">
+        <v>10</v>
+      </c>
+      <c r="AA32">
+        <v>5.5</v>
+      </c>
+      <c r="AB32">
+        <v>1.18</v>
+      </c>
+      <c r="AC32">
+        <v>1.01</v>
+      </c>
+      <c r="AD32">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AE32">
+        <v>1.16</v>
+      </c>
+      <c r="AF32">
+        <v>4.48</v>
+      </c>
+      <c r="AG32">
+        <v>1.54</v>
+      </c>
+      <c r="AH32">
+        <v>2.33</v>
+      </c>
+      <c r="AI32">
+        <v>1.73</v>
+      </c>
+      <c r="AJ32">
+        <v>2.05</v>
+      </c>
+      <c r="AK32">
+        <v>3.2</v>
+      </c>
+      <c r="AL32">
+        <v>1.1</v>
+      </c>
+      <c r="AM32">
+        <v>1.04</v>
+      </c>
+      <c r="AN32">
+        <v>1.33</v>
+      </c>
+      <c r="AO32">
+        <v>3</v>
+      </c>
+      <c r="AP32">
+        <v>1</v>
+      </c>
+      <c r="AQ32">
+        <v>3</v>
+      </c>
+      <c r="AR32">
+        <v>1.47</v>
+      </c>
+      <c r="AS32">
+        <v>2.28</v>
+      </c>
+      <c r="AT32">
+        <v>3.75</v>
+      </c>
+      <c r="AU32">
+        <v>3</v>
+      </c>
+      <c r="AV32">
+        <v>5</v>
+      </c>
+      <c r="AW32">
+        <v>2</v>
+      </c>
+      <c r="AX32">
+        <v>6</v>
+      </c>
+      <c r="AY32">
+        <v>5</v>
+      </c>
+      <c r="AZ32">
+        <v>11</v>
+      </c>
+      <c r="BA32">
+        <v>2</v>
+      </c>
+      <c r="BB32">
+        <v>2</v>
+      </c>
+      <c r="BC32">
+        <v>4</v>
+      </c>
+      <c r="BD32">
+        <v>0</v>
+      </c>
+      <c r="BE32">
+        <v>0</v>
+      </c>
+      <c r="BF32">
+        <v>0</v>
+      </c>
+      <c r="BG32">
+        <v>0</v>
+      </c>
+      <c r="BH32">
+        <v>0</v>
+      </c>
+      <c r="BI32">
+        <v>0</v>
+      </c>
+      <c r="BJ32">
+        <v>0</v>
+      </c>
+      <c r="BK32">
+        <v>0</v>
+      </c>
+      <c r="BL32">
+        <v>0</v>
+      </c>
+      <c r="BM32">
+        <v>0</v>
+      </c>
+      <c r="BN32">
+        <v>0</v>
+      </c>
+      <c r="BO32">
+        <v>0</v>
+      </c>
+      <c r="BP32">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="127">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -331,6 +331,9 @@
     <t>['79']</t>
   </si>
   <si>
+    <t>['2']</t>
+  </si>
+  <si>
     <t>['14', '18', '24', '66', '83', '87']</t>
   </si>
   <si>
@@ -389,6 +392,9 @@
   </si>
   <si>
     <t>['57', '90']</t>
+  </si>
+  <si>
+    <t>['31', '42', '90+4']</t>
   </si>
 </sst>
 </file>
@@ -750,7 +756,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP32"/>
+  <dimension ref="A1:BP33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1087,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ2">
         <v>0</v>
@@ -1215,7 +1221,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1627,7 +1633,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q5">
         <v>2.05</v>
@@ -1833,7 +1839,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -1914,7 +1920,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2245,7 +2251,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2657,7 +2663,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q10">
         <v>1.8</v>
@@ -2863,7 +2869,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q11">
         <v>1.91</v>
@@ -2941,7 +2947,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ11">
         <v>0.67</v>
@@ -3069,7 +3075,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3275,7 +3281,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q13">
         <v>2.88</v>
@@ -3481,7 +3487,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3687,7 +3693,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4305,7 +4311,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -5004,7 +5010,7 @@
         <v>3</v>
       </c>
       <c r="AQ21">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR21">
         <v>2.61</v>
@@ -5129,7 +5135,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5335,7 +5341,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5541,7 +5547,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q24">
         <v>1.67</v>
@@ -5747,7 +5753,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q25">
         <v>1.53</v>
@@ -5825,7 +5831,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ25">
         <v>0</v>
@@ -6159,7 +6165,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6365,7 +6371,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6777,7 +6783,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -6983,7 +6989,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7064,7 +7070,7 @@
         <v>2</v>
       </c>
       <c r="AQ31">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR31">
         <v>2.12</v>
@@ -7189,7 +7195,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q32">
         <v>7.5</v>
@@ -7285,66 +7291,272 @@
         <v>3</v>
       </c>
       <c r="AV32">
+        <v>10</v>
+      </c>
+      <c r="AW32">
+        <v>3</v>
+      </c>
+      <c r="AX32">
+        <v>14</v>
+      </c>
+      <c r="AY32">
+        <v>6</v>
+      </c>
+      <c r="AZ32">
+        <v>24</v>
+      </c>
+      <c r="BA32">
         <v>5</v>
       </c>
-      <c r="AW32">
-        <v>2</v>
-      </c>
-      <c r="AX32">
+      <c r="BB32">
+        <v>4</v>
+      </c>
+      <c r="BC32">
+        <v>9</v>
+      </c>
+      <c r="BD32">
+        <v>0</v>
+      </c>
+      <c r="BE32">
+        <v>0</v>
+      </c>
+      <c r="BF32">
+        <v>0</v>
+      </c>
+      <c r="BG32">
+        <v>0</v>
+      </c>
+      <c r="BH32">
+        <v>0</v>
+      </c>
+      <c r="BI32">
+        <v>0</v>
+      </c>
+      <c r="BJ32">
+        <v>0</v>
+      </c>
+      <c r="BK32">
+        <v>0</v>
+      </c>
+      <c r="BL32">
+        <v>0</v>
+      </c>
+      <c r="BM32">
+        <v>0</v>
+      </c>
+      <c r="BN32">
+        <v>0</v>
+      </c>
+      <c r="BO32">
+        <v>0</v>
+      </c>
+      <c r="BP32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:68">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>7325164</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="2">
+        <v>45399.54166666666</v>
+      </c>
+      <c r="F33">
+        <v>19</v>
+      </c>
+      <c r="G33" t="s">
+        <v>70</v>
+      </c>
+      <c r="H33" t="s">
+        <v>77</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>2</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>3</v>
+      </c>
+      <c r="N33">
+        <v>4</v>
+      </c>
+      <c r="O33" t="s">
+        <v>105</v>
+      </c>
+      <c r="P33" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q33">
+        <v>3.2</v>
+      </c>
+      <c r="R33">
+        <v>2.2</v>
+      </c>
+      <c r="S33">
+        <v>2.85</v>
+      </c>
+      <c r="T33">
+        <v>1.33</v>
+      </c>
+      <c r="U33">
+        <v>3</v>
+      </c>
+      <c r="V33">
+        <v>2.65</v>
+      </c>
+      <c r="W33">
+        <v>1.43</v>
+      </c>
+      <c r="X33">
+        <v>6.5</v>
+      </c>
+      <c r="Y33">
+        <v>1.08</v>
+      </c>
+      <c r="Z33">
+        <v>3.4</v>
+      </c>
+      <c r="AA33">
+        <v>6.99</v>
+      </c>
+      <c r="AB33">
+        <v>1.49</v>
+      </c>
+      <c r="AC33">
+        <v>1.04</v>
+      </c>
+      <c r="AD33">
+        <v>8.75</v>
+      </c>
+      <c r="AE33">
+        <v>1.25</v>
+      </c>
+      <c r="AF33">
+        <v>3.6</v>
+      </c>
+      <c r="AG33">
+        <v>1.83</v>
+      </c>
+      <c r="AH33">
+        <v>1.87</v>
+      </c>
+      <c r="AI33">
+        <v>1.66</v>
+      </c>
+      <c r="AJ33">
+        <v>2.15</v>
+      </c>
+      <c r="AK33">
+        <v>1.5</v>
+      </c>
+      <c r="AL33">
+        <v>1.25</v>
+      </c>
+      <c r="AM33">
+        <v>1.38</v>
+      </c>
+      <c r="AN33">
+        <v>2.33</v>
+      </c>
+      <c r="AO33">
+        <v>1</v>
+      </c>
+      <c r="AP33">
+        <v>1.75</v>
+      </c>
+      <c r="AQ33">
+        <v>1.5</v>
+      </c>
+      <c r="AR33">
+        <v>1.95</v>
+      </c>
+      <c r="AS33">
+        <v>1.58</v>
+      </c>
+      <c r="AT33">
+        <v>3.53</v>
+      </c>
+      <c r="AU33">
+        <v>3</v>
+      </c>
+      <c r="AV33">
+        <v>7</v>
+      </c>
+      <c r="AW33">
+        <v>1</v>
+      </c>
+      <c r="AX33">
+        <v>2</v>
+      </c>
+      <c r="AY33">
+        <v>4</v>
+      </c>
+      <c r="AZ33">
+        <v>9</v>
+      </c>
+      <c r="BA33">
+        <v>2</v>
+      </c>
+      <c r="BB33">
+        <v>4</v>
+      </c>
+      <c r="BC33">
         <v>6</v>
       </c>
-      <c r="AY32">
-        <v>5</v>
-      </c>
-      <c r="AZ32">
-        <v>11</v>
-      </c>
-      <c r="BA32">
-        <v>2</v>
-      </c>
-      <c r="BB32">
-        <v>2</v>
-      </c>
-      <c r="BC32">
-        <v>4</v>
-      </c>
-      <c r="BD32">
-        <v>0</v>
-      </c>
-      <c r="BE32">
-        <v>0</v>
-      </c>
-      <c r="BF32">
-        <v>0</v>
-      </c>
-      <c r="BG32">
-        <v>0</v>
-      </c>
-      <c r="BH32">
-        <v>0</v>
-      </c>
-      <c r="BI32">
-        <v>0</v>
-      </c>
-      <c r="BJ32">
-        <v>0</v>
-      </c>
-      <c r="BK32">
-        <v>0</v>
-      </c>
-      <c r="BL32">
-        <v>0</v>
-      </c>
-      <c r="BM32">
-        <v>0</v>
-      </c>
-      <c r="BN32">
-        <v>0</v>
-      </c>
-      <c r="BO32">
-        <v>0</v>
-      </c>
-      <c r="BP32">
+      <c r="BD33">
+        <v>0</v>
+      </c>
+      <c r="BE33">
+        <v>0</v>
+      </c>
+      <c r="BF33">
+        <v>0</v>
+      </c>
+      <c r="BG33">
+        <v>0</v>
+      </c>
+      <c r="BH33">
+        <v>0</v>
+      </c>
+      <c r="BI33">
+        <v>0</v>
+      </c>
+      <c r="BJ33">
+        <v>0</v>
+      </c>
+      <c r="BK33">
+        <v>0</v>
+      </c>
+      <c r="BL33">
+        <v>0</v>
+      </c>
+      <c r="BM33">
+        <v>0</v>
+      </c>
+      <c r="BN33">
+        <v>0</v>
+      </c>
+      <c r="BO33">
+        <v>0</v>
+      </c>
+      <c r="BP33">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -7288,22 +7288,22 @@
         <v>3.75</v>
       </c>
       <c r="AU32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV32">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AW32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX32">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AY32">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ32">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="BA32">
         <v>5</v>
@@ -7497,28 +7497,28 @@
         <v>3</v>
       </c>
       <c r="AV33">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AW33">
         <v>1</v>
       </c>
       <c r="AX33">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AY33">
         <v>4</v>
       </c>
       <c r="AZ33">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="BA33">
         <v>2</v>
       </c>
       <c r="BB33">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BC33">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BD33">
         <v>0</v>

--- a/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="128">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -395,6 +395,9 @@
   </si>
   <si>
     <t>['31', '42', '90+4']</t>
+  </si>
+  <si>
+    <t>['2', '37']</t>
   </si>
 </sst>
 </file>
@@ -756,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP33"/>
+  <dimension ref="A1:BP34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2950,7 +2953,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ11">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR11">
         <v>1.79</v>
@@ -3977,7 +3980,7 @@
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ16">
         <v>2.33</v>
@@ -4186,7 +4189,7 @@
         <v>1</v>
       </c>
       <c r="AQ17">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR17">
         <v>0.95</v>
@@ -5213,7 +5216,7 @@
         <v>2</v>
       </c>
       <c r="AP22">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ22">
         <v>1.33</v>
@@ -6452,7 +6455,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ28">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR28">
         <v>1.8</v>
@@ -7494,22 +7497,22 @@
         <v>3.53</v>
       </c>
       <c r="AU33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV33">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AW33">
         <v>1</v>
       </c>
       <c r="AX33">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AY33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ33">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="BA33">
         <v>2</v>
@@ -7557,6 +7560,212 @@
         <v>0</v>
       </c>
       <c r="BP33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:68">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>7325165</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="2">
+        <v>45402.27083333334</v>
+      </c>
+      <c r="F34">
+        <v>7</v>
+      </c>
+      <c r="G34" t="s">
+        <v>79</v>
+      </c>
+      <c r="H34" t="s">
+        <v>73</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>2</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>2</v>
+      </c>
+      <c r="N34">
+        <v>2</v>
+      </c>
+      <c r="O34" t="s">
+        <v>81</v>
+      </c>
+      <c r="P34" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q34">
+        <v>4.88</v>
+      </c>
+      <c r="R34">
+        <v>2.28</v>
+      </c>
+      <c r="S34">
+        <v>2.29</v>
+      </c>
+      <c r="T34">
+        <v>1.32</v>
+      </c>
+      <c r="U34">
+        <v>3.09</v>
+      </c>
+      <c r="V34">
+        <v>2.57</v>
+      </c>
+      <c r="W34">
+        <v>1.47</v>
+      </c>
+      <c r="X34">
+        <v>6.13</v>
+      </c>
+      <c r="Y34">
+        <v>1.09</v>
+      </c>
+      <c r="Z34">
+        <v>4.2</v>
+      </c>
+      <c r="AA34">
+        <v>3.7</v>
+      </c>
+      <c r="AB34">
+        <v>1.69</v>
+      </c>
+      <c r="AC34">
+        <v>1.02</v>
+      </c>
+      <c r="AD34">
+        <v>10.5</v>
+      </c>
+      <c r="AE34">
+        <v>1.22</v>
+      </c>
+      <c r="AF34">
+        <v>4</v>
+      </c>
+      <c r="AG34">
+        <v>1.76</v>
+      </c>
+      <c r="AH34">
+        <v>1.96</v>
+      </c>
+      <c r="AI34">
+        <v>1.68</v>
+      </c>
+      <c r="AJ34">
+        <v>2.13</v>
+      </c>
+      <c r="AK34">
+        <v>1.95</v>
+      </c>
+      <c r="AL34">
+        <v>1.24</v>
+      </c>
+      <c r="AM34">
+        <v>1.2</v>
+      </c>
+      <c r="AN34">
+        <v>2</v>
+      </c>
+      <c r="AO34">
+        <v>0.67</v>
+      </c>
+      <c r="AP34">
+        <v>1.33</v>
+      </c>
+      <c r="AQ34">
+        <v>1.25</v>
+      </c>
+      <c r="AR34">
+        <v>1.08</v>
+      </c>
+      <c r="AS34">
+        <v>1.28</v>
+      </c>
+      <c r="AT34">
+        <v>2.36</v>
+      </c>
+      <c r="AU34">
+        <v>2</v>
+      </c>
+      <c r="AV34">
+        <v>10</v>
+      </c>
+      <c r="AW34">
+        <v>8</v>
+      </c>
+      <c r="AX34">
+        <v>6</v>
+      </c>
+      <c r="AY34">
+        <v>10</v>
+      </c>
+      <c r="AZ34">
+        <v>16</v>
+      </c>
+      <c r="BA34">
+        <v>6</v>
+      </c>
+      <c r="BB34">
+        <v>2</v>
+      </c>
+      <c r="BC34">
+        <v>8</v>
+      </c>
+      <c r="BD34">
+        <v>0</v>
+      </c>
+      <c r="BE34">
+        <v>0</v>
+      </c>
+      <c r="BF34">
+        <v>0</v>
+      </c>
+      <c r="BG34">
+        <v>0</v>
+      </c>
+      <c r="BH34">
+        <v>0</v>
+      </c>
+      <c r="BI34">
+        <v>0</v>
+      </c>
+      <c r="BJ34">
+        <v>0</v>
+      </c>
+      <c r="BK34">
+        <v>0</v>
+      </c>
+      <c r="BL34">
+        <v>0</v>
+      </c>
+      <c r="BM34">
+        <v>0</v>
+      </c>
+      <c r="BN34">
+        <v>0</v>
+      </c>
+      <c r="BO34">
+        <v>0</v>
+      </c>
+      <c r="BP34">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="129">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -398,6 +398,9 @@
   </si>
   <si>
     <t>['2', '37']</t>
+  </si>
+  <si>
+    <t>['47']</t>
   </si>
 </sst>
 </file>
@@ -759,7 +762,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP34"/>
+  <dimension ref="A1:BP35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1717,7 +1720,7 @@
         <v>1</v>
       </c>
       <c r="AQ5">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2744,7 +2747,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AQ10">
         <v>0</v>
@@ -3362,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AQ13">
         <v>1.33</v>
@@ -3571,7 +3574,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ14">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -5219,7 +5222,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ22">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR22">
         <v>0.74</v>
@@ -5628,7 +5631,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AQ24">
         <v>1</v>
@@ -7766,6 +7769,212 @@
         <v>0</v>
       </c>
       <c r="BP34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:68">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>7325166</v>
+      </c>
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="2">
+        <v>45402.35416666666</v>
+      </c>
+      <c r="F35">
+        <v>7</v>
+      </c>
+      <c r="G35" t="s">
+        <v>77</v>
+      </c>
+      <c r="H35" t="s">
+        <v>75</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35" t="s">
+        <v>81</v>
+      </c>
+      <c r="P35" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q35">
+        <v>1.82</v>
+      </c>
+      <c r="R35">
+        <v>2.6</v>
+      </c>
+      <c r="S35">
+        <v>6.15</v>
+      </c>
+      <c r="T35">
+        <v>1.22</v>
+      </c>
+      <c r="U35">
+        <v>3.75</v>
+      </c>
+      <c r="V35">
+        <v>2.25</v>
+      </c>
+      <c r="W35">
+        <v>1.57</v>
+      </c>
+      <c r="X35">
+        <v>5</v>
+      </c>
+      <c r="Y35">
+        <v>1.14</v>
+      </c>
+      <c r="Z35">
+        <v>1.35</v>
+      </c>
+      <c r="AA35">
+        <v>4.9</v>
+      </c>
+      <c r="AB35">
+        <v>7</v>
+      </c>
+      <c r="AC35">
+        <v>1.01</v>
+      </c>
+      <c r="AD35">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AE35">
+        <v>1.14</v>
+      </c>
+      <c r="AF35">
+        <v>4.98</v>
+      </c>
+      <c r="AG35">
+        <v>1.54</v>
+      </c>
+      <c r="AH35">
+        <v>2.33</v>
+      </c>
+      <c r="AI35">
+        <v>1.73</v>
+      </c>
+      <c r="AJ35">
+        <v>2.05</v>
+      </c>
+      <c r="AK35">
+        <v>1.06</v>
+      </c>
+      <c r="AL35">
+        <v>1.14</v>
+      </c>
+      <c r="AM35">
+        <v>2.9</v>
+      </c>
+      <c r="AN35">
+        <v>3</v>
+      </c>
+      <c r="AO35">
+        <v>1.33</v>
+      </c>
+      <c r="AP35">
+        <v>2.25</v>
+      </c>
+      <c r="AQ35">
+        <v>1.75</v>
+      </c>
+      <c r="AR35">
+        <v>2.56</v>
+      </c>
+      <c r="AS35">
+        <v>1.96</v>
+      </c>
+      <c r="AT35">
+        <v>4.52</v>
+      </c>
+      <c r="AU35">
+        <v>4</v>
+      </c>
+      <c r="AV35">
+        <v>3</v>
+      </c>
+      <c r="AW35">
+        <v>5</v>
+      </c>
+      <c r="AX35">
+        <v>4</v>
+      </c>
+      <c r="AY35">
+        <v>9</v>
+      </c>
+      <c r="AZ35">
+        <v>7</v>
+      </c>
+      <c r="BA35">
+        <v>2</v>
+      </c>
+      <c r="BB35">
+        <v>3</v>
+      </c>
+      <c r="BC35">
+        <v>5</v>
+      </c>
+      <c r="BD35">
+        <v>0</v>
+      </c>
+      <c r="BE35">
+        <v>0</v>
+      </c>
+      <c r="BF35">
+        <v>0</v>
+      </c>
+      <c r="BG35">
+        <v>0</v>
+      </c>
+      <c r="BH35">
+        <v>0</v>
+      </c>
+      <c r="BI35">
+        <v>0</v>
+      </c>
+      <c r="BJ35">
+        <v>0</v>
+      </c>
+      <c r="BK35">
+        <v>0</v>
+      </c>
+      <c r="BL35">
+        <v>0</v>
+      </c>
+      <c r="BM35">
+        <v>0</v>
+      </c>
+      <c r="BN35">
+        <v>0</v>
+      </c>
+      <c r="BO35">
+        <v>0</v>
+      </c>
+      <c r="BP35">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="131">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -334,6 +334,9 @@
     <t>['2']</t>
   </si>
   <si>
+    <t>['27']</t>
+  </si>
+  <si>
     <t>['14', '18', '24', '66', '83', '87']</t>
   </si>
   <si>
@@ -401,6 +404,9 @@
   </si>
   <si>
     <t>['47']</t>
+  </si>
+  <si>
+    <t>['49']</t>
   </si>
 </sst>
 </file>
@@ -762,7 +768,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP35"/>
+  <dimension ref="A1:BP36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1227,7 +1233,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1511,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ4">
         <v>0</v>
@@ -1639,7 +1645,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q5">
         <v>2.05</v>
@@ -1845,7 +1851,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2132,7 +2138,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ7">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2257,7 +2263,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2669,7 +2675,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q10">
         <v>1.8</v>
@@ -2875,7 +2881,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q11">
         <v>1.91</v>
@@ -3081,7 +3087,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3287,7 +3293,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q13">
         <v>2.88</v>
@@ -3493,7 +3499,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3699,7 +3705,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4317,7 +4323,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -5013,7 +5019,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ21">
         <v>1.5</v>
@@ -5141,7 +5147,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5347,7 +5353,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5553,7 +5559,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q24">
         <v>1.67</v>
@@ -5759,7 +5765,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q25">
         <v>1.53</v>
@@ -6046,7 +6052,7 @@
         <v>1</v>
       </c>
       <c r="AQ26">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR26">
         <v>1.42</v>
@@ -6171,7 +6177,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6377,7 +6383,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6661,7 +6667,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ29">
         <v>0</v>
@@ -6789,7 +6795,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -6995,7 +7001,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7201,7 +7207,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q32">
         <v>7.5</v>
@@ -7407,7 +7413,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7613,7 +7619,7 @@
         <v>81</v>
       </c>
       <c r="P34" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q34">
         <v>4.88</v>
@@ -7709,19 +7715,19 @@
         <v>2</v>
       </c>
       <c r="AV34">
+        <v>6</v>
+      </c>
+      <c r="AW34">
+        <v>7</v>
+      </c>
+      <c r="AX34">
+        <v>4</v>
+      </c>
+      <c r="AY34">
+        <v>9</v>
+      </c>
+      <c r="AZ34">
         <v>10</v>
-      </c>
-      <c r="AW34">
-        <v>8</v>
-      </c>
-      <c r="AX34">
-        <v>6</v>
-      </c>
-      <c r="AY34">
-        <v>10</v>
-      </c>
-      <c r="AZ34">
-        <v>16</v>
       </c>
       <c r="BA34">
         <v>6</v>
@@ -7819,7 +7825,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q35">
         <v>1.82</v>
@@ -7912,69 +7918,275 @@
         <v>4.52</v>
       </c>
       <c r="AU35">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AV35">
         <v>3</v>
       </c>
       <c r="AW35">
+        <v>15</v>
+      </c>
+      <c r="AX35">
+        <v>7</v>
+      </c>
+      <c r="AY35">
+        <v>22</v>
+      </c>
+      <c r="AZ35">
+        <v>10</v>
+      </c>
+      <c r="BA35">
+        <v>12</v>
+      </c>
+      <c r="BB35">
+        <v>4</v>
+      </c>
+      <c r="BC35">
+        <v>16</v>
+      </c>
+      <c r="BD35">
+        <v>0</v>
+      </c>
+      <c r="BE35">
+        <v>0</v>
+      </c>
+      <c r="BF35">
+        <v>0</v>
+      </c>
+      <c r="BG35">
+        <v>0</v>
+      </c>
+      <c r="BH35">
+        <v>0</v>
+      </c>
+      <c r="BI35">
+        <v>0</v>
+      </c>
+      <c r="BJ35">
+        <v>0</v>
+      </c>
+      <c r="BK35">
+        <v>0</v>
+      </c>
+      <c r="BL35">
+        <v>0</v>
+      </c>
+      <c r="BM35">
+        <v>0</v>
+      </c>
+      <c r="BN35">
+        <v>0</v>
+      </c>
+      <c r="BO35">
+        <v>0</v>
+      </c>
+      <c r="BP35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:68">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>7325167</v>
+      </c>
+      <c r="C36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="2">
+        <v>45402.45833333334</v>
+      </c>
+      <c r="F36">
+        <v>7</v>
+      </c>
+      <c r="G36" t="s">
+        <v>72</v>
+      </c>
+      <c r="H36" t="s">
+        <v>74</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>2</v>
+      </c>
+      <c r="O36" t="s">
+        <v>106</v>
+      </c>
+      <c r="P36" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q36">
+        <v>1.45</v>
+      </c>
+      <c r="R36">
+        <v>3</v>
+      </c>
+      <c r="S36">
+        <v>12.9</v>
+      </c>
+      <c r="T36">
+        <v>1.2</v>
+      </c>
+      <c r="U36">
+        <v>4</v>
+      </c>
+      <c r="V36">
+        <v>2.1</v>
+      </c>
+      <c r="W36">
+        <v>1.67</v>
+      </c>
+      <c r="X36">
         <v>5</v>
       </c>
-      <c r="AX35">
+      <c r="Y36">
+        <v>1.14</v>
+      </c>
+      <c r="Z36">
+        <v>1.11</v>
+      </c>
+      <c r="AA36">
+        <v>7.2</v>
+      </c>
+      <c r="AB36">
+        <v>16</v>
+      </c>
+      <c r="AC36">
+        <v>1.01</v>
+      </c>
+      <c r="AD36">
+        <v>23</v>
+      </c>
+      <c r="AE36">
+        <v>1.11</v>
+      </c>
+      <c r="AF36">
+        <v>6</v>
+      </c>
+      <c r="AG36">
+        <v>1.32</v>
+      </c>
+      <c r="AH36">
+        <v>2.65</v>
+      </c>
+      <c r="AI36">
+        <v>2.2</v>
+      </c>
+      <c r="AJ36">
+        <v>1.64</v>
+      </c>
+      <c r="AK36">
+        <v>1.04</v>
+      </c>
+      <c r="AL36">
+        <v>1.09</v>
+      </c>
+      <c r="AM36">
+        <v>3.5</v>
+      </c>
+      <c r="AN36">
+        <v>3</v>
+      </c>
+      <c r="AO36">
+        <v>0</v>
+      </c>
+      <c r="AP36">
+        <v>2.5</v>
+      </c>
+      <c r="AQ36">
+        <v>0.33</v>
+      </c>
+      <c r="AR36">
+        <v>2.43</v>
+      </c>
+      <c r="AS36">
+        <v>1.23</v>
+      </c>
+      <c r="AT36">
+        <v>3.66</v>
+      </c>
+      <c r="AU36">
+        <v>7</v>
+      </c>
+      <c r="AV36">
         <v>4</v>
       </c>
-      <c r="AY35">
-        <v>9</v>
-      </c>
-      <c r="AZ35">
+      <c r="AW36">
+        <v>5</v>
+      </c>
+      <c r="AX36">
+        <v>3</v>
+      </c>
+      <c r="AY36">
+        <v>12</v>
+      </c>
+      <c r="AZ36">
         <v>7</v>
       </c>
-      <c r="BA35">
-        <v>2</v>
-      </c>
-      <c r="BB35">
-        <v>3</v>
-      </c>
-      <c r="BC35">
+      <c r="BA36">
+        <v>7</v>
+      </c>
+      <c r="BB36">
         <v>5</v>
       </c>
-      <c r="BD35">
-        <v>0</v>
-      </c>
-      <c r="BE35">
-        <v>0</v>
-      </c>
-      <c r="BF35">
-        <v>0</v>
-      </c>
-      <c r="BG35">
-        <v>0</v>
-      </c>
-      <c r="BH35">
-        <v>0</v>
-      </c>
-      <c r="BI35">
-        <v>0</v>
-      </c>
-      <c r="BJ35">
-        <v>0</v>
-      </c>
-      <c r="BK35">
-        <v>0</v>
-      </c>
-      <c r="BL35">
-        <v>0</v>
-      </c>
-      <c r="BM35">
-        <v>0</v>
-      </c>
-      <c r="BN35">
-        <v>0</v>
-      </c>
-      <c r="BO35">
-        <v>0</v>
-      </c>
-      <c r="BP35">
+      <c r="BC36">
+        <v>12</v>
+      </c>
+      <c r="BD36">
+        <v>0</v>
+      </c>
+      <c r="BE36">
+        <v>0</v>
+      </c>
+      <c r="BF36">
+        <v>0</v>
+      </c>
+      <c r="BG36">
+        <v>0</v>
+      </c>
+      <c r="BH36">
+        <v>0</v>
+      </c>
+      <c r="BI36">
+        <v>0</v>
+      </c>
+      <c r="BJ36">
+        <v>0</v>
+      </c>
+      <c r="BK36">
+        <v>0</v>
+      </c>
+      <c r="BL36">
+        <v>0</v>
+      </c>
+      <c r="BM36">
+        <v>0</v>
+      </c>
+      <c r="BN36">
+        <v>0</v>
+      </c>
+      <c r="BO36">
+        <v>0</v>
+      </c>
+      <c r="BP36">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="134">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -337,6 +337,12 @@
     <t>['27']</t>
   </si>
   <si>
+    <t>['15', '30', '40', '42', '43']</t>
+  </si>
+  <si>
+    <t>['5', '90+3']</t>
+  </si>
+  <si>
     <t>['14', '18', '24', '66', '83', '87']</t>
   </si>
   <si>
@@ -407,6 +413,9 @@
   </si>
   <si>
     <t>['49']</t>
+  </si>
+  <si>
+    <t>['36', '81']</t>
   </si>
 </sst>
 </file>
@@ -768,7 +777,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP36"/>
+  <dimension ref="A1:BP38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1105,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ2">
         <v>0</v>
@@ -1233,7 +1242,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1311,10 +1320,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ3">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1645,7 +1654,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q5">
         <v>2.05</v>
@@ -1851,7 +1860,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2263,7 +2272,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2341,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ8">
         <v>3</v>
@@ -2675,7 +2684,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q10">
         <v>1.8</v>
@@ -2881,7 +2890,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q11">
         <v>1.91</v>
@@ -2959,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ11">
         <v>1.25</v>
@@ -3087,7 +3096,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3293,7 +3302,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q13">
         <v>2.88</v>
@@ -3499,7 +3508,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3705,7 +3714,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -3992,7 +4001,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ16">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4195,7 +4204,7 @@
         <v>1</v>
       </c>
       <c r="AP17">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ17">
         <v>1.25</v>
@@ -4323,7 +4332,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -4404,7 +4413,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ18">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR18">
         <v>1.11</v>
@@ -5147,7 +5156,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5353,7 +5362,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5559,7 +5568,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q24">
         <v>1.67</v>
@@ -5765,7 +5774,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q25">
         <v>1.53</v>
@@ -5843,7 +5852,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ25">
         <v>0</v>
@@ -6177,7 +6186,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6383,7 +6392,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6795,7 +6804,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7001,7 +7010,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7207,7 +7216,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q32">
         <v>7.5</v>
@@ -7413,7 +7422,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7491,7 +7500,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ33">
         <v>1.5</v>
@@ -7619,7 +7628,7 @@
         <v>81</v>
       </c>
       <c r="P34" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q34">
         <v>4.88</v>
@@ -7715,19 +7724,19 @@
         <v>2</v>
       </c>
       <c r="AV34">
+        <v>10</v>
+      </c>
+      <c r="AW34">
+        <v>8</v>
+      </c>
+      <c r="AX34">
         <v>6</v>
       </c>
-      <c r="AW34">
-        <v>7</v>
-      </c>
-      <c r="AX34">
-        <v>4</v>
-      </c>
       <c r="AY34">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ34">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="BA34">
         <v>6</v>
@@ -7825,7 +7834,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q35">
         <v>1.82</v>
@@ -8031,7 +8040,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q36">
         <v>1.45</v>
@@ -8187,6 +8196,418 @@
         <v>0</v>
       </c>
       <c r="BP36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:68">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>7325168</v>
+      </c>
+      <c r="C37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="2">
+        <v>45403.35416666666</v>
+      </c>
+      <c r="F37">
+        <v>7</v>
+      </c>
+      <c r="G37" t="s">
+        <v>71</v>
+      </c>
+      <c r="H37" t="s">
+        <v>78</v>
+      </c>
+      <c r="I37">
+        <v>5</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>5</v>
+      </c>
+      <c r="L37">
+        <v>5</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>5</v>
+      </c>
+      <c r="O37" t="s">
+        <v>107</v>
+      </c>
+      <c r="P37" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q37">
+        <v>2.85</v>
+      </c>
+      <c r="R37">
+        <v>2.18</v>
+      </c>
+      <c r="S37">
+        <v>3.38</v>
+      </c>
+      <c r="T37">
+        <v>1.33</v>
+      </c>
+      <c r="U37">
+        <v>3.12</v>
+      </c>
+      <c r="V37">
+        <v>2.57</v>
+      </c>
+      <c r="W37">
+        <v>1.47</v>
+      </c>
+      <c r="X37">
+        <v>6.2</v>
+      </c>
+      <c r="Y37">
+        <v>1.1</v>
+      </c>
+      <c r="Z37">
+        <v>2.25</v>
+      </c>
+      <c r="AA37">
+        <v>3.4</v>
+      </c>
+      <c r="AB37">
+        <v>2.6</v>
+      </c>
+      <c r="AC37">
+        <v>1.02</v>
+      </c>
+      <c r="AD37">
+        <v>10.5</v>
+      </c>
+      <c r="AE37">
+        <v>1.22</v>
+      </c>
+      <c r="AF37">
+        <v>4</v>
+      </c>
+      <c r="AG37">
+        <v>1.73</v>
+      </c>
+      <c r="AH37">
+        <v>2</v>
+      </c>
+      <c r="AI37">
+        <v>1.58</v>
+      </c>
+      <c r="AJ37">
+        <v>2.31</v>
+      </c>
+      <c r="AK37">
+        <v>1.45</v>
+      </c>
+      <c r="AL37">
+        <v>1.25</v>
+      </c>
+      <c r="AM37">
+        <v>1.5</v>
+      </c>
+      <c r="AN37">
+        <v>1</v>
+      </c>
+      <c r="AO37">
+        <v>0</v>
+      </c>
+      <c r="AP37">
+        <v>1.5</v>
+      </c>
+      <c r="AQ37">
+        <v>0</v>
+      </c>
+      <c r="AR37">
+        <v>1.49</v>
+      </c>
+      <c r="AS37">
+        <v>1.41</v>
+      </c>
+      <c r="AT37">
+        <v>2.9</v>
+      </c>
+      <c r="AU37">
+        <v>9</v>
+      </c>
+      <c r="AV37">
+        <v>5</v>
+      </c>
+      <c r="AW37">
+        <v>8</v>
+      </c>
+      <c r="AX37">
+        <v>8</v>
+      </c>
+      <c r="AY37">
+        <v>17</v>
+      </c>
+      <c r="AZ37">
+        <v>13</v>
+      </c>
+      <c r="BA37">
+        <v>7</v>
+      </c>
+      <c r="BB37">
+        <v>5</v>
+      </c>
+      <c r="BC37">
+        <v>12</v>
+      </c>
+      <c r="BD37">
+        <v>0</v>
+      </c>
+      <c r="BE37">
+        <v>0</v>
+      </c>
+      <c r="BF37">
+        <v>0</v>
+      </c>
+      <c r="BG37">
+        <v>0</v>
+      </c>
+      <c r="BH37">
+        <v>0</v>
+      </c>
+      <c r="BI37">
+        <v>0</v>
+      </c>
+      <c r="BJ37">
+        <v>0</v>
+      </c>
+      <c r="BK37">
+        <v>0</v>
+      </c>
+      <c r="BL37">
+        <v>0</v>
+      </c>
+      <c r="BM37">
+        <v>0</v>
+      </c>
+      <c r="BN37">
+        <v>0</v>
+      </c>
+      <c r="BO37">
+        <v>0</v>
+      </c>
+      <c r="BP37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:68">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>7325169</v>
+      </c>
+      <c r="C38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45403.45833333334</v>
+      </c>
+      <c r="F38">
+        <v>7</v>
+      </c>
+      <c r="G38" t="s">
+        <v>70</v>
+      </c>
+      <c r="H38" t="s">
+        <v>76</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>2</v>
+      </c>
+      <c r="L38">
+        <v>2</v>
+      </c>
+      <c r="M38">
+        <v>2</v>
+      </c>
+      <c r="N38">
+        <v>4</v>
+      </c>
+      <c r="O38" t="s">
+        <v>108</v>
+      </c>
+      <c r="P38" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q38">
+        <v>3.1</v>
+      </c>
+      <c r="R38">
+        <v>2.2</v>
+      </c>
+      <c r="S38">
+        <v>3</v>
+      </c>
+      <c r="T38">
+        <v>1.34</v>
+      </c>
+      <c r="U38">
+        <v>3</v>
+      </c>
+      <c r="V38">
+        <v>2.62</v>
+      </c>
+      <c r="W38">
+        <v>1.45</v>
+      </c>
+      <c r="X38">
+        <v>6.33</v>
+      </c>
+      <c r="Y38">
+        <v>1.08</v>
+      </c>
+      <c r="Z38">
+        <v>2.88</v>
+      </c>
+      <c r="AA38">
+        <v>3.4</v>
+      </c>
+      <c r="AB38">
+        <v>2.1</v>
+      </c>
+      <c r="AC38">
+        <v>1.01</v>
+      </c>
+      <c r="AD38">
+        <v>10</v>
+      </c>
+      <c r="AE38">
+        <v>1.25</v>
+      </c>
+      <c r="AF38">
+        <v>3.75</v>
+      </c>
+      <c r="AG38">
+        <v>1.66</v>
+      </c>
+      <c r="AH38">
+        <v>1.88</v>
+      </c>
+      <c r="AI38">
+        <v>1.61</v>
+      </c>
+      <c r="AJ38">
+        <v>2.25</v>
+      </c>
+      <c r="AK38">
+        <v>1.48</v>
+      </c>
+      <c r="AL38">
+        <v>1.27</v>
+      </c>
+      <c r="AM38">
+        <v>1.45</v>
+      </c>
+      <c r="AN38">
+        <v>1.75</v>
+      </c>
+      <c r="AO38">
+        <v>2.33</v>
+      </c>
+      <c r="AP38">
+        <v>1.6</v>
+      </c>
+      <c r="AQ38">
+        <v>2</v>
+      </c>
+      <c r="AR38">
+        <v>1.67</v>
+      </c>
+      <c r="AS38">
+        <v>2</v>
+      </c>
+      <c r="AT38">
+        <v>3.67</v>
+      </c>
+      <c r="AU38">
+        <v>10</v>
+      </c>
+      <c r="AV38">
+        <v>6</v>
+      </c>
+      <c r="AW38">
+        <v>9</v>
+      </c>
+      <c r="AX38">
+        <v>8</v>
+      </c>
+      <c r="AY38">
+        <v>19</v>
+      </c>
+      <c r="AZ38">
+        <v>14</v>
+      </c>
+      <c r="BA38">
+        <v>5</v>
+      </c>
+      <c r="BB38">
+        <v>4</v>
+      </c>
+      <c r="BC38">
+        <v>9</v>
+      </c>
+      <c r="BD38">
+        <v>0</v>
+      </c>
+      <c r="BE38">
+        <v>0</v>
+      </c>
+      <c r="BF38">
+        <v>0</v>
+      </c>
+      <c r="BG38">
+        <v>0</v>
+      </c>
+      <c r="BH38">
+        <v>0</v>
+      </c>
+      <c r="BI38">
+        <v>0</v>
+      </c>
+      <c r="BJ38">
+        <v>0</v>
+      </c>
+      <c r="BK38">
+        <v>0</v>
+      </c>
+      <c r="BL38">
+        <v>0</v>
+      </c>
+      <c r="BM38">
+        <v>0</v>
+      </c>
+      <c r="BN38">
+        <v>0</v>
+      </c>
+      <c r="BO38">
+        <v>0</v>
+      </c>
+      <c r="BP38">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="140">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -343,6 +343,12 @@
     <t>['5', '90+3']</t>
   </si>
   <si>
+    <t>['12', '61']</t>
+  </si>
+  <si>
+    <t>['30', '72']</t>
+  </si>
+  <si>
     <t>['14', '18', '24', '66', '83', '87']</t>
   </si>
   <si>
@@ -416,6 +422,18 @@
   </si>
   <si>
     <t>['36', '81']</t>
+  </si>
+  <si>
+    <t>['16']</t>
+  </si>
+  <si>
+    <t>['25', '55']</t>
+  </si>
+  <si>
+    <t>['52', '79']</t>
+  </si>
+  <si>
+    <t>['7', '13', '88']</t>
   </si>
 </sst>
 </file>
@@ -777,7 +795,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP38"/>
+  <dimension ref="A1:BP42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1242,7 +1260,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1320,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ3">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1654,7 +1672,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q5">
         <v>2.05</v>
@@ -1732,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ5">
         <v>1.75</v>
@@ -1860,7 +1878,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -1938,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ6">
         <v>1.5</v>
@@ -2144,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ7">
         <v>0.33</v>
@@ -2272,7 +2290,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2350,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ8">
         <v>3</v>
@@ -2684,7 +2702,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q10">
         <v>1.8</v>
@@ -2890,7 +2908,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q11">
         <v>1.91</v>
@@ -3096,7 +3114,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3174,7 +3192,7 @@
         <v>3</v>
       </c>
       <c r="AP12">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ12">
         <v>3</v>
@@ -3302,7 +3320,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q13">
         <v>2.88</v>
@@ -3383,7 +3401,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ13">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR13">
         <v>2.65</v>
@@ -3508,7 +3526,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3714,7 +3732,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -3792,7 +3810,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ15">
         <v>1</v>
@@ -4001,7 +4019,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ16">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4204,7 +4222,7 @@
         <v>1</v>
       </c>
       <c r="AP17">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ17">
         <v>1.25</v>
@@ -4332,7 +4350,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -4410,10 +4428,10 @@
         <v>2</v>
       </c>
       <c r="AP18">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ18">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR18">
         <v>1.11</v>
@@ -4822,10 +4840,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ20">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR20">
         <v>2.07</v>
@@ -5156,7 +5174,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5362,7 +5380,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5568,7 +5586,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q24">
         <v>1.67</v>
@@ -5774,7 +5792,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q25">
         <v>1.53</v>
@@ -6058,7 +6076,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ26">
         <v>0.33</v>
@@ -6186,7 +6204,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6264,7 +6282,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ27">
         <v>1</v>
@@ -6392,7 +6410,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6804,7 +6822,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -6882,10 +6900,10 @@
         <v>0.5</v>
       </c>
       <c r="AP30">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ30">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR30">
         <v>1.13</v>
@@ -7010,7 +7028,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7216,7 +7234,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q32">
         <v>7.5</v>
@@ -7294,7 +7312,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ32">
         <v>3</v>
@@ -7422,7 +7440,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7628,7 +7646,7 @@
         <v>81</v>
       </c>
       <c r="P34" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q34">
         <v>4.88</v>
@@ -7834,7 +7852,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q35">
         <v>1.82</v>
@@ -8040,7 +8058,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q36">
         <v>1.45</v>
@@ -8324,7 +8342,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ37">
         <v>0</v>
@@ -8452,7 +8470,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q38">
         <v>3.1</v>
@@ -8533,7 +8551,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ38">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR38">
         <v>1.67</v>
@@ -8608,6 +8626,830 @@
         <v>0</v>
       </c>
       <c r="BP38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:68">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>7325170</v>
+      </c>
+      <c r="C39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="2">
+        <v>45408.54166666666</v>
+      </c>
+      <c r="F39">
+        <v>8</v>
+      </c>
+      <c r="G39" t="s">
+        <v>74</v>
+      </c>
+      <c r="H39" t="s">
+        <v>79</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>2</v>
+      </c>
+      <c r="L39">
+        <v>2</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>3</v>
+      </c>
+      <c r="O39" t="s">
+        <v>109</v>
+      </c>
+      <c r="P39" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q39">
+        <v>2.3</v>
+      </c>
+      <c r="R39">
+        <v>2.25</v>
+      </c>
+      <c r="S39">
+        <v>4.33</v>
+      </c>
+      <c r="T39">
+        <v>1.35</v>
+      </c>
+      <c r="U39">
+        <v>3.04</v>
+      </c>
+      <c r="V39">
+        <v>2.62</v>
+      </c>
+      <c r="W39">
+        <v>1.45</v>
+      </c>
+      <c r="X39">
+        <v>6.4</v>
+      </c>
+      <c r="Y39">
+        <v>1.1</v>
+      </c>
+      <c r="Z39">
+        <v>1.81</v>
+      </c>
+      <c r="AA39">
+        <v>3.65</v>
+      </c>
+      <c r="AB39">
+        <v>3.94</v>
+      </c>
+      <c r="AC39">
+        <v>1.01</v>
+      </c>
+      <c r="AD39">
+        <v>10</v>
+      </c>
+      <c r="AE39">
+        <v>1.22</v>
+      </c>
+      <c r="AF39">
+        <v>3.64</v>
+      </c>
+      <c r="AG39">
+        <v>1.65</v>
+      </c>
+      <c r="AH39">
+        <v>2.1</v>
+      </c>
+      <c r="AI39">
+        <v>1.66</v>
+      </c>
+      <c r="AJ39">
+        <v>2.04</v>
+      </c>
+      <c r="AK39">
+        <v>1.27</v>
+      </c>
+      <c r="AL39">
+        <v>1.27</v>
+      </c>
+      <c r="AM39">
+        <v>1.72</v>
+      </c>
+      <c r="AN39">
+        <v>0.75</v>
+      </c>
+      <c r="AO39">
+        <v>0</v>
+      </c>
+      <c r="AP39">
+        <v>1.2</v>
+      </c>
+      <c r="AQ39">
+        <v>0</v>
+      </c>
+      <c r="AR39">
+        <v>1.08</v>
+      </c>
+      <c r="AS39">
+        <v>0.77</v>
+      </c>
+      <c r="AT39">
+        <v>1.85</v>
+      </c>
+      <c r="AU39">
+        <v>9</v>
+      </c>
+      <c r="AV39">
+        <v>2</v>
+      </c>
+      <c r="AW39">
+        <v>8</v>
+      </c>
+      <c r="AX39">
+        <v>4</v>
+      </c>
+      <c r="AY39">
+        <v>17</v>
+      </c>
+      <c r="AZ39">
+        <v>6</v>
+      </c>
+      <c r="BA39">
+        <v>11</v>
+      </c>
+      <c r="BB39">
+        <v>2</v>
+      </c>
+      <c r="BC39">
+        <v>13</v>
+      </c>
+      <c r="BD39">
+        <v>0</v>
+      </c>
+      <c r="BE39">
+        <v>0</v>
+      </c>
+      <c r="BF39">
+        <v>0</v>
+      </c>
+      <c r="BG39">
+        <v>0</v>
+      </c>
+      <c r="BH39">
+        <v>0</v>
+      </c>
+      <c r="BI39">
+        <v>0</v>
+      </c>
+      <c r="BJ39">
+        <v>0</v>
+      </c>
+      <c r="BK39">
+        <v>0</v>
+      </c>
+      <c r="BL39">
+        <v>0</v>
+      </c>
+      <c r="BM39">
+        <v>0</v>
+      </c>
+      <c r="BN39">
+        <v>0</v>
+      </c>
+      <c r="BO39">
+        <v>0</v>
+      </c>
+      <c r="BP39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:68">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>7325171</v>
+      </c>
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="2">
+        <v>45409.35416666666</v>
+      </c>
+      <c r="F40">
+        <v>8</v>
+      </c>
+      <c r="G40" t="s">
+        <v>73</v>
+      </c>
+      <c r="H40" t="s">
+        <v>76</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>2</v>
+      </c>
+      <c r="N40">
+        <v>2</v>
+      </c>
+      <c r="O40" t="s">
+        <v>81</v>
+      </c>
+      <c r="P40" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q40">
+        <v>4.5</v>
+      </c>
+      <c r="R40">
+        <v>2.25</v>
+      </c>
+      <c r="S40">
+        <v>2.25</v>
+      </c>
+      <c r="T40">
+        <v>1.36</v>
+      </c>
+      <c r="U40">
+        <v>2.99</v>
+      </c>
+      <c r="V40">
+        <v>2.66</v>
+      </c>
+      <c r="W40">
+        <v>1.44</v>
+      </c>
+      <c r="X40">
+        <v>6.6</v>
+      </c>
+      <c r="Y40">
+        <v>1.09</v>
+      </c>
+      <c r="Z40">
+        <v>3.9</v>
+      </c>
+      <c r="AA40">
+        <v>3.45</v>
+      </c>
+      <c r="AB40">
+        <v>1.6</v>
+      </c>
+      <c r="AC40">
+        <v>1.01</v>
+      </c>
+      <c r="AD40">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE40">
+        <v>1.24</v>
+      </c>
+      <c r="AF40">
+        <v>3.48</v>
+      </c>
+      <c r="AG40">
+        <v>1.72</v>
+      </c>
+      <c r="AH40">
+        <v>1.79</v>
+      </c>
+      <c r="AI40">
+        <v>1.73</v>
+      </c>
+      <c r="AJ40">
+        <v>1.95</v>
+      </c>
+      <c r="AK40">
+        <v>1.95</v>
+      </c>
+      <c r="AL40">
+        <v>1.24</v>
+      </c>
+      <c r="AM40">
+        <v>1.19</v>
+      </c>
+      <c r="AN40">
+        <v>1</v>
+      </c>
+      <c r="AO40">
+        <v>2</v>
+      </c>
+      <c r="AP40">
+        <v>0.8</v>
+      </c>
+      <c r="AQ40">
+        <v>2.2</v>
+      </c>
+      <c r="AR40">
+        <v>1.38</v>
+      </c>
+      <c r="AS40">
+        <v>1.92</v>
+      </c>
+      <c r="AT40">
+        <v>3.3</v>
+      </c>
+      <c r="AU40">
+        <v>4</v>
+      </c>
+      <c r="AV40">
+        <v>9</v>
+      </c>
+      <c r="AW40">
+        <v>7</v>
+      </c>
+      <c r="AX40">
+        <v>13</v>
+      </c>
+      <c r="AY40">
+        <v>11</v>
+      </c>
+      <c r="AZ40">
+        <v>22</v>
+      </c>
+      <c r="BA40">
+        <v>2</v>
+      </c>
+      <c r="BB40">
+        <v>10</v>
+      </c>
+      <c r="BC40">
+        <v>12</v>
+      </c>
+      <c r="BD40">
+        <v>0</v>
+      </c>
+      <c r="BE40">
+        <v>0</v>
+      </c>
+      <c r="BF40">
+        <v>0</v>
+      </c>
+      <c r="BG40">
+        <v>0</v>
+      </c>
+      <c r="BH40">
+        <v>0</v>
+      </c>
+      <c r="BI40">
+        <v>0</v>
+      </c>
+      <c r="BJ40">
+        <v>0</v>
+      </c>
+      <c r="BK40">
+        <v>0</v>
+      </c>
+      <c r="BL40">
+        <v>0</v>
+      </c>
+      <c r="BM40">
+        <v>0</v>
+      </c>
+      <c r="BN40">
+        <v>0</v>
+      </c>
+      <c r="BO40">
+        <v>0</v>
+      </c>
+      <c r="BP40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:68">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>7325172</v>
+      </c>
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="2">
+        <v>45409.45833333334</v>
+      </c>
+      <c r="F41">
+        <v>8</v>
+      </c>
+      <c r="G41" t="s">
+        <v>71</v>
+      </c>
+      <c r="H41" t="s">
+        <v>70</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>2</v>
+      </c>
+      <c r="M41">
+        <v>2</v>
+      </c>
+      <c r="N41">
+        <v>4</v>
+      </c>
+      <c r="O41" t="s">
+        <v>110</v>
+      </c>
+      <c r="P41" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q41">
+        <v>5</v>
+      </c>
+      <c r="R41">
+        <v>2.38</v>
+      </c>
+      <c r="S41">
+        <v>2</v>
+      </c>
+      <c r="T41">
+        <v>1.3</v>
+      </c>
+      <c r="U41">
+        <v>3.32</v>
+      </c>
+      <c r="V41">
+        <v>2.43</v>
+      </c>
+      <c r="W41">
+        <v>1.52</v>
+      </c>
+      <c r="X41">
+        <v>5.65</v>
+      </c>
+      <c r="Y41">
+        <v>1.12</v>
+      </c>
+      <c r="Z41">
+        <v>6.11</v>
+      </c>
+      <c r="AA41">
+        <v>4.31</v>
+      </c>
+      <c r="AB41">
+        <v>1.42</v>
+      </c>
+      <c r="AC41">
+        <v>1.01</v>
+      </c>
+      <c r="AD41">
+        <v>11</v>
+      </c>
+      <c r="AE41">
+        <v>1.17</v>
+      </c>
+      <c r="AF41">
+        <v>4.15</v>
+      </c>
+      <c r="AG41">
+        <v>1.62</v>
+      </c>
+      <c r="AH41">
+        <v>2.2</v>
+      </c>
+      <c r="AI41">
+        <v>1.71</v>
+      </c>
+      <c r="AJ41">
+        <v>1.97</v>
+      </c>
+      <c r="AK41">
+        <v>2.15</v>
+      </c>
+      <c r="AL41">
+        <v>1.2</v>
+      </c>
+      <c r="AM41">
+        <v>1.16</v>
+      </c>
+      <c r="AN41">
+        <v>1.5</v>
+      </c>
+      <c r="AO41">
+        <v>1.33</v>
+      </c>
+      <c r="AP41">
+        <v>1.4</v>
+      </c>
+      <c r="AQ41">
+        <v>1.25</v>
+      </c>
+      <c r="AR41">
+        <v>1.7</v>
+      </c>
+      <c r="AS41">
+        <v>1.42</v>
+      </c>
+      <c r="AT41">
+        <v>3.12</v>
+      </c>
+      <c r="AU41">
+        <v>4</v>
+      </c>
+      <c r="AV41">
+        <v>12</v>
+      </c>
+      <c r="AW41">
+        <v>4</v>
+      </c>
+      <c r="AX41">
+        <v>6</v>
+      </c>
+      <c r="AY41">
+        <v>8</v>
+      </c>
+      <c r="AZ41">
+        <v>18</v>
+      </c>
+      <c r="BA41">
+        <v>5</v>
+      </c>
+      <c r="BB41">
+        <v>10</v>
+      </c>
+      <c r="BC41">
+        <v>15</v>
+      </c>
+      <c r="BD41">
+        <v>0</v>
+      </c>
+      <c r="BE41">
+        <v>0</v>
+      </c>
+      <c r="BF41">
+        <v>0</v>
+      </c>
+      <c r="BG41">
+        <v>0</v>
+      </c>
+      <c r="BH41">
+        <v>0</v>
+      </c>
+      <c r="BI41">
+        <v>0</v>
+      </c>
+      <c r="BJ41">
+        <v>0</v>
+      </c>
+      <c r="BK41">
+        <v>0</v>
+      </c>
+      <c r="BL41">
+        <v>0</v>
+      </c>
+      <c r="BM41">
+        <v>0</v>
+      </c>
+      <c r="BN41">
+        <v>0</v>
+      </c>
+      <c r="BO41">
+        <v>0</v>
+      </c>
+      <c r="BP41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:68">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>7325173</v>
+      </c>
+      <c r="C42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="2">
+        <v>45410.35416666666</v>
+      </c>
+      <c r="F42">
+        <v>8</v>
+      </c>
+      <c r="G42" t="s">
+        <v>75</v>
+      </c>
+      <c r="H42" t="s">
+        <v>72</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>2</v>
+      </c>
+      <c r="K42">
+        <v>2</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>3</v>
+      </c>
+      <c r="N42">
+        <v>3</v>
+      </c>
+      <c r="O42" t="s">
+        <v>81</v>
+      </c>
+      <c r="P42" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q42">
+        <v>8</v>
+      </c>
+      <c r="R42">
+        <v>2.5</v>
+      </c>
+      <c r="S42">
+        <v>1.73</v>
+      </c>
+      <c r="T42">
+        <v>1.3</v>
+      </c>
+      <c r="U42">
+        <v>3.22</v>
+      </c>
+      <c r="V42">
+        <v>2.4</v>
+      </c>
+      <c r="W42">
+        <v>1.5</v>
+      </c>
+      <c r="X42">
+        <v>5.79</v>
+      </c>
+      <c r="Y42">
+        <v>1.1</v>
+      </c>
+      <c r="Z42">
+        <v>8</v>
+      </c>
+      <c r="AA42">
+        <v>4.8</v>
+      </c>
+      <c r="AB42">
+        <v>1.3</v>
+      </c>
+      <c r="AC42">
+        <v>1.01</v>
+      </c>
+      <c r="AD42">
+        <v>11</v>
+      </c>
+      <c r="AE42">
+        <v>1.19</v>
+      </c>
+      <c r="AF42">
+        <v>3.98</v>
+      </c>
+      <c r="AG42">
+        <v>1.57</v>
+      </c>
+      <c r="AH42">
+        <v>2.15</v>
+      </c>
+      <c r="AI42">
+        <v>2</v>
+      </c>
+      <c r="AJ42">
+        <v>1.72</v>
+      </c>
+      <c r="AK42">
+        <v>2.8</v>
+      </c>
+      <c r="AL42">
+        <v>1.14</v>
+      </c>
+      <c r="AM42">
+        <v>1.08</v>
+      </c>
+      <c r="AN42">
+        <v>1.33</v>
+      </c>
+      <c r="AO42">
+        <v>3</v>
+      </c>
+      <c r="AP42">
+        <v>1</v>
+      </c>
+      <c r="AQ42">
+        <v>3</v>
+      </c>
+      <c r="AR42">
+        <v>2.19</v>
+      </c>
+      <c r="AS42">
+        <v>2.62</v>
+      </c>
+      <c r="AT42">
+        <v>4.81</v>
+      </c>
+      <c r="AU42">
+        <v>3</v>
+      </c>
+      <c r="AV42">
+        <v>10</v>
+      </c>
+      <c r="AW42">
+        <v>8</v>
+      </c>
+      <c r="AX42">
+        <v>7</v>
+      </c>
+      <c r="AY42">
+        <v>11</v>
+      </c>
+      <c r="AZ42">
+        <v>17</v>
+      </c>
+      <c r="BA42">
+        <v>5</v>
+      </c>
+      <c r="BB42">
+        <v>10</v>
+      </c>
+      <c r="BC42">
+        <v>15</v>
+      </c>
+      <c r="BD42">
+        <v>0</v>
+      </c>
+      <c r="BE42">
+        <v>0</v>
+      </c>
+      <c r="BF42">
+        <v>0</v>
+      </c>
+      <c r="BG42">
+        <v>0</v>
+      </c>
+      <c r="BH42">
+        <v>0</v>
+      </c>
+      <c r="BI42">
+        <v>0</v>
+      </c>
+      <c r="BJ42">
+        <v>0</v>
+      </c>
+      <c r="BK42">
+        <v>0</v>
+      </c>
+      <c r="BL42">
+        <v>0</v>
+      </c>
+      <c r="BM42">
+        <v>0</v>
+      </c>
+      <c r="BN42">
+        <v>0</v>
+      </c>
+      <c r="BO42">
+        <v>0</v>
+      </c>
+      <c r="BP42">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Estonia Meistriliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="142">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -349,6 +349,9 @@
     <t>['30', '72']</t>
   </si>
   <si>
+    <t>['31']</t>
+  </si>
+  <si>
     <t>['14', '18', '24', '66', '83', '87']</t>
   </si>
   <si>
@@ -434,6 +437,9 @@
   </si>
   <si>
     <t>['7', '13', '88']</t>
+  </si>
+  <si>
+    <t>['90+7']</t>
   </si>
 </sst>
 </file>
@@ -795,7 +801,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP42"/>
+  <dimension ref="A1:BP43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1260,7 +1266,7 @@
         <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1672,7 +1678,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q5">
         <v>2.05</v>
@@ -1878,7 +1884,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -1959,7 +1965,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ6">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2290,7 +2296,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q8">
         <v>8.5</v>
@@ -2702,7 +2708,7 @@
         <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q10">
         <v>1.8</v>
@@ -2908,7 +2914,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q11">
         <v>1.91</v>
@@ -3114,7 +3120,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q12">
         <v>6.5</v>
@@ -3320,7 +3326,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q13">
         <v>2.88</v>
@@ -3526,7 +3532,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q14">
         <v>2.88</v>
@@ -3604,7 +3610,7 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ14">
         <v>1.75</v>
@@ -3732,7 +3738,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q15">
         <v>2</v>
@@ -4350,7 +4356,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -4634,7 +4640,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ19">
         <v>0</v>
@@ -5049,7 +5055,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ21">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR21">
         <v>2.61</v>
@@ -5174,7 +5180,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5380,7 +5386,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5586,7 +5592,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q24">
         <v>1.67</v>
@@ -5792,7 +5798,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q25">
         <v>1.53</v>
@@ -6204,7 +6210,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q27">
         <v>2.88</v>
@@ -6410,7 +6416,7 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q28">
         <v>3.1</v>
@@ -6488,7 +6494,7 @@
         <v>0.5</v>
       </c>
       <c r="AP28">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ28">
         <v>1.25</v>
@@ -6822,7 +6828,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -7028,7 +7034,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7109,7 +7115,7 @@
         <v>2</v>
       </c>
       <c r="AQ31">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR31">
         <v>2.12</v>
@@ -7234,7 +7240,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q32">
         <v>7.5</v>
@@ -7440,7 +7446,7 @@
         <v>105</v>
       </c>
       <c r="P33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q33">
         <v>3.2</v>
@@ -7521,7 +7527,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ33">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR33">
         <v>1.95</v>
@@ -7646,7 +7652,7 @@
         <v>81</v>
       </c>
       <c r="P34" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q34">
         <v>4.88</v>
@@ -7852,7 +7858,7 @@
         <v>81</v>
       </c>
       <c r="P35" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q35">
         <v>1.82</v>
@@ -8058,7 +8064,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q36">
         <v>1.45</v>
@@ -8470,7 +8476,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q38">
         <v>3.1</v>
@@ -8676,7 +8682,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q39">
         <v>2.3</v>
@@ -8882,7 +8888,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q40">
         <v>4.5</v>
@@ -9088,7 +9094,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9184,19 +9190,19 @@
         <v>4</v>
       </c>
       <c r="AV41">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AW41">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX41">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY41">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ41">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BA41">
         <v>5</v>
@@ -9294,7 +9300,7 @@
         <v>81</v>
       </c>
       <c r="P42" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9387,22 +9393,22 @@
         <v>4.81</v>
       </c>
       <c r="AU42">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV42">
+        <v>7</v>
+      </c>
+      <c r="AW42">
+        <v>5</v>
+      </c>
+      <c r="AX42">
+        <v>4</v>
+      </c>
+      <c r="AY42">
         <v>10</v>
       </c>
-      <c r="AW42">
-        <v>8</v>
-      </c>
-      <c r="AX42">
-        <v>7</v>
-      </c>
-      <c r="AY42">
+      <c r="AZ42">
         <v>11</v>
-      </c>
-      <c r="AZ42">
-        <v>17</v>
       </c>
       <c r="BA42">
         <v>5</v>
@@ -9450,6 +9456,212 @@
         <v>0</v>
       </c>
       <c r="BP42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:68">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>7325174</v>
+      </c>
+      <c r="C43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="2">
+        <v>45410.45833333334</v>
+      </c>
+      <c r="F43">
+        <v>8</v>
+      </c>
+      <c r="G43" t="s">
+        <v>78</v>
+      </c>
+      <c r="H43" t="s">
+        <v>77</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>2</v>
+      </c>
+      <c r="O43" t="s">
+        <v>111</v>
+      </c>
+      <c r="P43" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q43">
+        <v>7</v>
+      </c>
+      <c r="R43">
+        <v>2.3</v>
+      </c>
+      <c r="S43">
+        <v>1.83</v>
+      </c>
+      <c r="T43">
+        <v>1.32</v>
+      </c>
+      <c r="U43">
+        <v>3.1</v>
+      </c>
+      <c r="V43">
+        <v>2.55</v>
+      </c>
+      <c r="W43">
+        <v>1.46</v>
+      </c>
+      <c r="X43">
+        <v>6.03</v>
+      </c>
+      <c r="Y43">
+        <v>1.09</v>
+      </c>
+      <c r="Z43">
+        <v>8</v>
+      </c>
+      <c r="AA43">
+        <v>4.5</v>
+      </c>
+      <c r="AB43">
+        <v>1.36</v>
+      </c>
+      <c r="AC43">
+        <v>1.02</v>
+      </c>
+      <c r="AD43">
+        <v>10.5</v>
+      </c>
+      <c r="AE43">
+        <v>1.21</v>
+      </c>
+      <c r="AF43">
+        <v>3.74</v>
+      </c>
+      <c r="AG43">
+        <v>1.7</v>
+      </c>
+      <c r="AH43">
+        <v>2.1</v>
+      </c>
+      <c r="AI43">
+        <v>1.9</v>
+      </c>
+      <c r="AJ43">
+        <v>1.8</v>
+      </c>
+      <c r="AK43">
+        <v>2.4</v>
+      </c>
+      <c r="AL43">
+        <v>1.18</v>
+      </c>
+      <c r="AM43">
+        <v>1.11</v>
+      </c>
+      <c r="AN43">
+        <v>1.33</v>
+      </c>
+      <c r="AO43">
+        <v>1.5</v>
+      </c>
+      <c r="AP43">
+        <v>1.25</v>
+      </c>
+      <c r="AQ43">
+        <v>1.4</v>
+      </c>
+      <c r="AR43">
+        <v>1.92</v>
+      </c>
+      <c r="AS43">
+        <v>2.04</v>
+      </c>
+      <c r="AT43">
+        <v>3.96</v>
+      </c>
+      <c r="AU43">
+        <v>5</v>
+      </c>
+      <c r="AV43">
+        <v>4</v>
+      </c>
+      <c r="AW43">
+        <v>8</v>
+      </c>
+      <c r="AX43">
+        <v>10</v>
+      </c>
+      <c r="AY43">
+        <v>13</v>
+      </c>
+      <c r="AZ43">
+        <v>14</v>
+      </c>
+      <c r="BA43">
+        <v>4</v>
+      </c>
+      <c r="BB43">
+        <v>9</v>
+      </c>
+      <c r="BC43">
+        <v>13</v>
+      </c>
+      <c r="BD43">
+        <v>0</v>
+      </c>
+      <c r="BE43">
+        <v>0</v>
+      </c>
+      <c r="BF43">
+        <v>0</v>
+      </c>
+      <c r="BG43">
+        <v>0</v>
+      </c>
+      <c r="BH43">
+        <v>0</v>
+      </c>
+      <c r="BI43">
+        <v>0</v>
+      </c>
+      <c r="BJ43">
+        <v>0</v>
+      </c>
+      <c r="BK43">
+        <v>0</v>
+      </c>
+      <c r="BL43">
+        <v>0</v>
+      </c>
+      <c r="BM43">
+        <v>0</v>
+      </c>
+      <c r="BN43">
+        <v>0</v>
+      </c>
+      <c r="BO43">
+        <v>0</v>
+      </c>
+      <c r="BP43">
         <v>0</v>
       </c>
     </row>
